--- a/Documentacion/COBERTURAS AVILA.xlsx
+++ b/Documentacion/COBERTURAS AVILA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Franklin" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Provincias" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1637,9 +1637,6 @@
     <t xml:space="preserve">RAMO RAMO CASCO AEREO </t>
   </si>
   <si>
-    <t>RAMO RAMO CASCO MARITIMO</t>
-  </si>
-  <si>
     <t>RAMO DINERO Y VALORES</t>
   </si>
   <si>
@@ -2292,16 +2289,19 @@
   </si>
   <si>
     <t>San José de Raranga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAMO CASCO MARITIMO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2725,7 +2725,7 @@
   </borders>
   <cellStyleXfs count="842">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3567,7 +3567,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3943,6 +3943,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3985,216 +3988,210 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="842">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
@@ -5336,27 +5333,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E729"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:B453"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="173"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
@@ -5540,7 +5537,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="18">
+    <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -5576,7 +5573,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="28">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" s="12" t="s">
         <v>26</v>
       </c>
@@ -5682,7 +5679,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="18">
+    <row r="36" spans="1:4" ht="18.75">
       <c r="A36" s="10" t="s">
         <v>37</v>
       </c>
@@ -5850,7 +5847,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="18">
+    <row r="55" spans="1:5" ht="18.75">
       <c r="A55" s="10" t="s">
         <v>57</v>
       </c>
@@ -5916,23 +5913,23 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
     </row>
-    <row r="63" spans="1:5" s="104" customFormat="1" ht="18">
-      <c r="A63" s="174" t="s">
+    <row r="63" spans="1:5" s="104" customFormat="1" ht="18.75">
+      <c r="A63" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="175"/>
-      <c r="C63" s="175"/>
-      <c r="D63" s="175"/>
-      <c r="E63" s="176"/>
-    </row>
-    <row r="64" spans="1:5" s="104" customFormat="1" ht="18">
+      <c r="B63" s="176"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="177"/>
+    </row>
+    <row r="64" spans="1:5" s="104" customFormat="1" ht="18.75">
       <c r="A64" s="103"/>
       <c r="B64" s="103"/>
       <c r="C64" s="103"/>
       <c r="D64" s="103"/>
       <c r="E64" s="106"/>
     </row>
-    <row r="65" spans="1:5" s="104" customFormat="1" ht="18">
+    <row r="65" spans="1:5" s="104" customFormat="1" ht="18.75">
       <c r="A65" s="11" t="s">
         <v>2</v>
       </c>
@@ -5941,7 +5938,7 @@
       <c r="D65" s="103"/>
       <c r="E65" s="106"/>
     </row>
-    <row r="66" spans="1:5" s="104" customFormat="1" ht="18">
+    <row r="66" spans="1:5" s="104" customFormat="1" ht="18.75">
       <c r="A66" s="35" t="s">
         <v>403</v>
       </c>
@@ -5950,7 +5947,7 @@
       <c r="D66" s="103"/>
       <c r="E66" s="106"/>
     </row>
-    <row r="67" spans="1:5" s="104" customFormat="1" ht="18">
+    <row r="67" spans="1:5" s="104" customFormat="1" ht="18.75">
       <c r="A67" s="35" t="s">
         <v>250</v>
       </c>
@@ -5959,7 +5956,7 @@
       <c r="D67" s="103"/>
       <c r="E67" s="106"/>
     </row>
-    <row r="68" spans="1:5" s="104" customFormat="1" ht="18">
+    <row r="68" spans="1:5" s="104" customFormat="1" ht="18.75">
       <c r="A68" s="105" t="s">
         <v>404</v>
       </c>
@@ -5968,14 +5965,14 @@
       <c r="D68" s="103"/>
       <c r="E68" s="106"/>
     </row>
-    <row r="69" spans="1:5" s="101" customFormat="1" ht="18">
+    <row r="69" spans="1:5" s="101" customFormat="1" ht="18.75">
       <c r="A69" s="102"/>
       <c r="B69" s="102"/>
       <c r="C69" s="102"/>
       <c r="D69" s="102"/>
       <c r="E69" s="107"/>
     </row>
-    <row r="70" spans="1:5" ht="18">
+    <row r="70" spans="1:5" ht="18.75">
       <c r="A70" s="10" t="s">
         <v>37</v>
       </c>
@@ -6052,7 +6049,7 @@
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
     </row>
-    <row r="77" spans="1:5" ht="28">
+    <row r="77" spans="1:5" ht="45">
       <c r="A77" s="13" t="s">
         <v>71</v>
       </c>
@@ -6189,7 +6186,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" ht="18">
+    <row r="92" spans="1:5" ht="18.75">
       <c r="A92" s="10" t="s">
         <v>57</v>
       </c>
@@ -6238,7 +6235,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" ht="28">
+    <row r="97" spans="1:5" ht="30">
       <c r="A97" s="13"/>
       <c r="B97" s="12" t="s">
         <v>90</v>
@@ -6247,7 +6244,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" ht="30">
       <c r="A98" s="13"/>
       <c r="B98" s="12" t="s">
         <v>92</v>
@@ -6272,18 +6269,18 @@
       <c r="D100" s="8"/>
       <c r="E100" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="18">
-      <c r="A102" s="184" t="s">
+    <row r="102" spans="1:5" ht="18.75">
+      <c r="A102" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="B102" s="184"/>
+      <c r="B102" s="182"/>
       <c r="C102" s="111"/>
     </row>
-    <row r="107" spans="1:5" ht="18">
-      <c r="A107" s="177" t="s">
+    <row r="107" spans="1:5" ht="18.75">
+      <c r="A107" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="177"/>
+      <c r="B107" s="178"/>
       <c r="C107" s="108"/>
     </row>
     <row r="108" spans="1:5">
@@ -6419,7 +6416,7 @@
       </c>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="27">
       <c r="A123" s="20" t="s">
         <v>111</v>
       </c>
@@ -6596,7 +6593,7 @@
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="145" spans="3:3" ht="19">
+    <row r="145" spans="3:3" ht="19.5">
       <c r="C145" s="98"/>
     </row>
     <row r="146" spans="3:3">
@@ -6662,7 +6659,7 @@
     <row r="166" spans="1:3">
       <c r="B166" s="6"/>
     </row>
-    <row r="168" spans="1:3" ht="18">
+    <row r="168" spans="1:3" ht="18.75">
       <c r="A168" s="91" t="s">
         <v>147</v>
       </c>
@@ -6682,7 +6679,7 @@
       <c r="B170" s="27"/>
       <c r="C170" s="7"/>
     </row>
-    <row r="171" spans="1:3" ht="112">
+    <row r="171" spans="1:3" ht="150">
       <c r="A171" s="30" t="s">
         <v>149</v>
       </c>
@@ -6908,7 +6905,7 @@
       <c r="B198" s="35"/>
       <c r="C198" s="35"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" ht="30">
       <c r="A199" s="36" t="s">
         <v>168</v>
       </c>
@@ -6929,7 +6926,7 @@
       <c r="B201" s="35"/>
       <c r="C201" s="35"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" ht="30">
       <c r="A202" s="36" t="s">
         <v>171</v>
       </c>
@@ -6950,7 +6947,7 @@
       <c r="B204" s="35"/>
       <c r="C204" s="35"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="30">
       <c r="A205" s="36" t="s">
         <v>174</v>
       </c>
@@ -6959,7 +6956,7 @@
       </c>
       <c r="C205" s="35"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" ht="30">
       <c r="A206" s="36" t="s">
         <v>175</v>
       </c>
@@ -6994,7 +6991,7 @@
       <c r="B210" s="35"/>
       <c r="C210" s="35"/>
     </row>
-    <row r="211" spans="1:3" ht="28">
+    <row r="211" spans="1:3" ht="30">
       <c r="A211" s="36" t="s">
         <v>180</v>
       </c>
@@ -7111,7 +7108,7 @@
       </c>
       <c r="C227" s="7"/>
     </row>
-    <row r="228" spans="1:3" ht="118">
+    <row r="228" spans="1:3" ht="157.5">
       <c r="A228" s="12" t="s">
         <v>195</v>
       </c>
@@ -7120,7 +7117,7 @@
       </c>
       <c r="C228" s="7"/>
     </row>
-    <row r="229" spans="1:3" ht="105">
+    <row r="229" spans="1:3" ht="129">
       <c r="A229" s="13" t="s">
         <v>197</v>
       </c>
@@ -7129,7 +7126,7 @@
       </c>
       <c r="C229" s="7"/>
     </row>
-    <row r="230" spans="1:3" ht="79">
+    <row r="230" spans="1:3" ht="86.25">
       <c r="A230" s="13" t="s">
         <v>199</v>
       </c>
@@ -7138,7 +7135,7 @@
       </c>
       <c r="C230" s="7"/>
     </row>
-    <row r="231" spans="1:3" ht="105">
+    <row r="231" spans="1:3" ht="129">
       <c r="A231" s="13" t="s">
         <v>201</v>
       </c>
@@ -7147,7 +7144,7 @@
       </c>
       <c r="C231" s="7"/>
     </row>
-    <row r="232" spans="1:3" ht="66">
+    <row r="232" spans="1:3" ht="72">
       <c r="A232" s="13" t="s">
         <v>203</v>
       </c>
@@ -7176,10 +7173,10 @@
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" spans="1:3" ht="18">
+    <row r="237" spans="1:3" ht="18.75">
       <c r="A237" s="44"/>
     </row>
-    <row r="238" spans="1:3" ht="18">
+    <row r="238" spans="1:3" ht="18.75">
       <c r="A238" s="91" t="s">
         <v>206</v>
       </c>
@@ -7197,7 +7194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="42">
+    <row r="241" spans="1:3" ht="45">
       <c r="A241" s="42" t="s">
         <v>205</v>
       </c>
@@ -7341,7 +7338,7 @@
       <c r="B258" s="35"/>
       <c r="C258" s="35"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" ht="30">
       <c r="A259" s="36" t="s">
         <v>168</v>
       </c>
@@ -7362,7 +7359,7 @@
       <c r="B261" s="35"/>
       <c r="C261" s="35"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" ht="30">
       <c r="A262" s="36" t="s">
         <v>171</v>
       </c>
@@ -7383,7 +7380,7 @@
       <c r="B264" s="35"/>
       <c r="C264" s="35"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" ht="30">
       <c r="A265" s="36" t="s">
         <v>174</v>
       </c>
@@ -7392,7 +7389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" ht="30">
       <c r="A266" s="36" t="s">
         <v>175</v>
       </c>
@@ -7427,7 +7424,7 @@
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
     </row>
-    <row r="271" spans="1:3" ht="28">
+    <row r="271" spans="1:3" ht="30">
       <c r="A271" s="36" t="s">
         <v>180</v>
       </c>
@@ -7540,14 +7537,14 @@
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="289" spans="1:3" ht="18">
+    <row r="289" spans="1:3" ht="18.75">
       <c r="A289" s="88" t="s">
         <v>209</v>
       </c>
       <c r="B289" s="92"/>
       <c r="C289" s="93"/>
     </row>
-    <row r="290" spans="1:3" s="2" customFormat="1" ht="18">
+    <row r="290" spans="1:3" s="2" customFormat="1" ht="18.75">
       <c r="A290" s="44"/>
       <c r="B290" s="46"/>
       <c r="C290" s="58"/>
@@ -7561,7 +7558,7 @@
       </c>
       <c r="C291" s="35"/>
     </row>
-    <row r="292" spans="1:3" ht="28">
+    <row r="292" spans="1:3" ht="30">
       <c r="A292" s="47" t="s">
         <v>210</v>
       </c>
@@ -7570,7 +7567,7 @@
       </c>
       <c r="C292" s="35"/>
     </row>
-    <row r="293" spans="1:3" ht="28">
+    <row r="293" spans="1:3" ht="30">
       <c r="A293" s="37" t="s">
         <v>211</v>
       </c>
@@ -7751,7 +7748,7 @@
       <c r="B315" s="5"/>
       <c r="C315" s="35"/>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" ht="30">
       <c r="A316" s="36" t="s">
         <v>223</v>
       </c>
@@ -7760,7 +7757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" ht="30">
       <c r="A317" s="36" t="s">
         <v>224</v>
       </c>
@@ -7792,7 +7789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="28">
+    <row r="321" spans="1:3" ht="30">
       <c r="A321" s="36" t="s">
         <v>227</v>
       </c>
@@ -7855,7 +7852,7 @@
       </c>
       <c r="C329" s="35"/>
     </row>
-    <row r="330" spans="1:3" ht="105">
+    <row r="330" spans="1:3" ht="129">
       <c r="A330" s="35" t="s">
         <v>197</v>
       </c>
@@ -7864,7 +7861,7 @@
       </c>
       <c r="C330" s="35"/>
     </row>
-    <row r="331" spans="1:3" ht="79">
+    <row r="331" spans="1:3" ht="86.25">
       <c r="A331" s="35" t="s">
         <v>199</v>
       </c>
@@ -7873,7 +7870,7 @@
       </c>
       <c r="C331" s="35"/>
     </row>
-    <row r="332" spans="1:3" ht="105">
+    <row r="332" spans="1:3" ht="129">
       <c r="A332" s="35" t="s">
         <v>201</v>
       </c>
@@ -7882,7 +7879,7 @@
       </c>
       <c r="C332" s="35"/>
     </row>
-    <row r="333" spans="1:3" ht="66">
+    <row r="333" spans="1:3" ht="72">
       <c r="A333" s="30" t="s">
         <v>203</v>
       </c>
@@ -7891,7 +7888,7 @@
       </c>
       <c r="C333" s="30"/>
     </row>
-    <row r="336" spans="1:3" ht="18">
+    <row r="336" spans="1:3" ht="18.75">
       <c r="A336" s="22" t="s">
         <v>232</v>
       </c>
@@ -8050,7 +8047,7 @@
       <c r="B360" s="30"/>
       <c r="C360" s="9"/>
     </row>
-    <row r="363" spans="1:3" ht="18">
+    <row r="363" spans="1:3" ht="18.75">
       <c r="A363" s="61" t="s">
         <v>248</v>
       </c>
@@ -8078,7 +8075,7 @@
       </c>
       <c r="C366" s="7"/>
     </row>
-    <row r="367" spans="1:3" ht="84">
+    <row r="367" spans="1:3" ht="105">
       <c r="A367" s="35" t="s">
         <v>250</v>
       </c>
@@ -8131,7 +8128,7 @@
     <row r="373" spans="1:3">
       <c r="C373" s="7"/>
     </row>
-    <row r="374" spans="1:3" ht="28">
+    <row r="374" spans="1:3" ht="30">
       <c r="A374" s="11" t="s">
         <v>37</v>
       </c>
@@ -8236,7 +8233,7 @@
       <c r="B386" s="35"/>
       <c r="C386" s="35"/>
     </row>
-    <row r="387" spans="1:3" ht="28">
+    <row r="387" spans="1:3" ht="30">
       <c r="A387" s="36" t="s">
         <v>180</v>
       </c>
@@ -8316,7 +8313,7 @@
       <c r="B398" s="30"/>
       <c r="C398" s="9"/>
     </row>
-    <row r="402" spans="1:3" ht="18">
+    <row r="402" spans="1:3" ht="18.75">
       <c r="A402" s="63" t="s">
         <v>266</v>
       </c>
@@ -8391,7 +8388,7 @@
       </c>
       <c r="B413" s="27"/>
     </row>
-    <row r="414" spans="1:3" ht="28">
+    <row r="414" spans="1:3" ht="30">
       <c r="A414" s="36" t="s">
         <v>270</v>
       </c>
@@ -8493,7 +8490,7 @@
       </c>
       <c r="B429" s="35"/>
     </row>
-    <row r="430" spans="1:2" ht="28">
+    <row r="430" spans="1:2" ht="30">
       <c r="A430" s="36" t="s">
         <v>180</v>
       </c>
@@ -8517,7 +8514,7 @@
       </c>
       <c r="B433" s="35"/>
     </row>
-    <row r="434" spans="1:3" ht="28">
+    <row r="434" spans="1:3" ht="30">
       <c r="A434" s="36" t="s">
         <v>280</v>
       </c>
@@ -8571,7 +8568,7 @@
       </c>
       <c r="B442" s="30"/>
     </row>
-    <row r="446" spans="1:3" ht="18">
+    <row r="446" spans="1:3" ht="18.75">
       <c r="A446" s="63" t="s">
         <v>284</v>
       </c>
@@ -8588,7 +8585,7 @@
       <c r="B448" s="38"/>
       <c r="C448" s="7"/>
     </row>
-    <row r="449" spans="1:3" ht="56">
+    <row r="449" spans="1:3" ht="60">
       <c r="A449" s="13" t="s">
         <v>2</v>
       </c>
@@ -8648,7 +8645,7 @@
       <c r="B456" s="35"/>
       <c r="C456" s="7"/>
     </row>
-    <row r="457" spans="1:3" ht="28">
+    <row r="457" spans="1:3" ht="30">
       <c r="A457" s="36" t="s">
         <v>270</v>
       </c>
@@ -8766,7 +8763,7 @@
       <c r="B472" s="35"/>
       <c r="C472" s="7"/>
     </row>
-    <row r="473" spans="1:3" ht="28">
+    <row r="473" spans="1:3" ht="30">
       <c r="A473" s="36" t="s">
         <v>180</v>
       </c>
@@ -8794,7 +8791,7 @@
       <c r="B476" s="35"/>
       <c r="C476" s="7"/>
     </row>
-    <row r="477" spans="1:3" ht="28">
+    <row r="477" spans="1:3" ht="30">
       <c r="A477" s="36" t="s">
         <v>280</v>
       </c>
@@ -8857,21 +8854,21 @@
       <c r="B485" s="30"/>
       <c r="C485" s="9"/>
     </row>
-    <row r="488" spans="1:3" ht="18">
-      <c r="A488" s="177" t="s">
+    <row r="488" spans="1:3" ht="18.75">
+      <c r="A488" s="178" t="s">
         <v>286</v>
       </c>
-      <c r="B488" s="177"/>
+      <c r="B488" s="178"/>
       <c r="C488" s="60"/>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="178" t="s">
+      <c r="A489" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B489" s="179"/>
+      <c r="B489" s="180"/>
       <c r="C489" s="6"/>
     </row>
-    <row r="490" spans="1:3" ht="56">
+    <row r="490" spans="1:3" ht="75">
       <c r="A490" s="66" t="s">
         <v>2</v>
       </c>
@@ -8880,21 +8877,21 @@
       </c>
       <c r="C490" s="6"/>
     </row>
-    <row r="494" spans="1:3" ht="18">
-      <c r="A494" s="167" t="s">
+    <row r="494" spans="1:3" ht="18.75">
+      <c r="A494" s="168" t="s">
         <v>288</v>
       </c>
-      <c r="B494" s="168"/>
+      <c r="B494" s="169"/>
       <c r="C494" s="60"/>
     </row>
     <row r="495" spans="1:3">
-      <c r="A495" s="178" t="s">
+      <c r="A495" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B495" s="179"/>
+      <c r="B495" s="180"/>
       <c r="C495" s="6"/>
     </row>
-    <row r="496" spans="1:3" ht="169">
+    <row r="496" spans="1:3" ht="204.75">
       <c r="A496" s="110" t="s">
         <v>2</v>
       </c>
@@ -8903,21 +8900,21 @@
       </c>
       <c r="C496" s="6"/>
     </row>
-    <row r="500" spans="1:3" ht="18">
-      <c r="A500" s="177" t="s">
+    <row r="500" spans="1:3" ht="18.75">
+      <c r="A500" s="178" t="s">
         <v>290</v>
       </c>
-      <c r="B500" s="177"/>
+      <c r="B500" s="178"/>
       <c r="C500" s="60"/>
     </row>
     <row r="501" spans="1:3">
-      <c r="A501" s="180" t="s">
+      <c r="A501" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B501" s="180"/>
+      <c r="B501" s="181"/>
       <c r="C501" s="6"/>
     </row>
-    <row r="502" spans="1:3" ht="85">
+    <row r="502" spans="1:3" ht="102.75">
       <c r="A502" s="11" t="s">
         <v>2</v>
       </c>
@@ -8926,7 +8923,7 @@
       </c>
       <c r="C502" s="6"/>
     </row>
-    <row r="506" spans="1:3" ht="18">
+    <row r="506" spans="1:3" ht="18.75">
       <c r="A506" s="63" t="s">
         <v>292</v>
       </c>
@@ -8942,7 +8939,7 @@
       </c>
       <c r="C508" s="7"/>
     </row>
-    <row r="509" spans="1:3" ht="98">
+    <row r="509" spans="1:3" ht="120">
       <c r="A509" s="11" t="s">
         <v>2</v>
       </c>
@@ -8951,7 +8948,7 @@
       </c>
       <c r="C509" s="9"/>
     </row>
-    <row r="513" spans="1:3" ht="18">
+    <row r="513" spans="1:3" ht="18.75">
       <c r="A513" s="63" t="s">
         <v>294</v>
       </c>
@@ -8974,12 +8971,12 @@
       <c r="B516" s="27"/>
       <c r="C516" s="7"/>
     </row>
-    <row r="517" spans="1:3" ht="49">
+    <row r="517" spans="1:3" ht="64.5">
       <c r="A517" s="69" t="s">
         <v>295</v>
       </c>
       <c r="B517" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C517" s="7"/>
     </row>
@@ -8988,7 +8985,7 @@
         <v>296</v>
       </c>
       <c r="B518" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C518" s="7"/>
     </row>
@@ -8997,7 +8994,7 @@
         <v>297</v>
       </c>
       <c r="B519" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C519" s="7"/>
     </row>
@@ -9006,25 +9003,25 @@
         <v>298</v>
       </c>
       <c r="B520" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C520" s="7"/>
     </row>
-    <row r="521" spans="1:3" ht="49">
+    <row r="521" spans="1:3" ht="51.75">
       <c r="A521" s="69" t="s">
         <v>299</v>
       </c>
       <c r="B521" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C521" s="7"/>
     </row>
-    <row r="522" spans="1:3" ht="25">
+    <row r="522" spans="1:3" ht="26.25">
       <c r="A522" s="70" t="s">
         <v>300</v>
       </c>
       <c r="B522" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C522" s="7"/>
     </row>
@@ -9104,19 +9101,19 @@
       </c>
       <c r="C533" s="9"/>
     </row>
-    <row r="536" spans="1:3" ht="18">
-      <c r="A536" s="169" t="s">
+    <row r="536" spans="1:3" ht="18.75">
+      <c r="A536" s="170" t="s">
         <v>303</v>
       </c>
-      <c r="B536" s="170"/>
-      <c r="C536" s="171"/>
+      <c r="B536" s="171"/>
+      <c r="C536" s="172"/>
     </row>
     <row r="537" spans="1:3">
-      <c r="A537" s="181" t="s">
+      <c r="A537" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="B537" s="182"/>
-      <c r="C537" s="183"/>
+      <c r="B537" s="250"/>
+      <c r="C537" s="251"/>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="11" t="s">
@@ -9125,7 +9122,7 @@
       <c r="B538" s="13"/>
       <c r="C538" s="13"/>
     </row>
-    <row r="539" spans="1:3" ht="36">
+    <row r="539" spans="1:3" ht="51">
       <c r="A539" s="74" t="s">
         <v>305</v>
       </c>
@@ -9149,7 +9146,7 @@
       </c>
       <c r="C541" s="75"/>
     </row>
-    <row r="542" spans="1:3" ht="60">
+    <row r="542" spans="1:3" ht="76.5">
       <c r="A542" s="75" t="s">
         <v>310</v>
       </c>
@@ -9172,14 +9169,14 @@
       <c r="B544" s="35"/>
       <c r="C544" s="35"/>
     </row>
-    <row r="545" spans="1:3" ht="72">
+    <row r="545" spans="1:3" ht="89.25">
       <c r="A545" s="35"/>
       <c r="B545" s="75" t="s">
         <v>314</v>
       </c>
       <c r="C545" s="35"/>
     </row>
-    <row r="546" spans="1:3" ht="48">
+    <row r="546" spans="1:3" ht="63.75">
       <c r="A546" s="35"/>
       <c r="B546" s="75" t="s">
         <v>315</v>
@@ -9198,21 +9195,21 @@
       <c r="B548" s="35"/>
       <c r="C548" s="35"/>
     </row>
-    <row r="549" spans="1:3" ht="49">
+    <row r="549" spans="1:3" ht="64.5">
       <c r="A549" s="35"/>
       <c r="B549" s="69" t="s">
         <v>299</v>
       </c>
       <c r="C549" s="35"/>
     </row>
-    <row r="550" spans="1:3" s="2" customFormat="1" ht="37">
+    <row r="550" spans="1:3" s="2" customFormat="1" ht="39">
       <c r="A550" s="35"/>
       <c r="B550" s="69" t="s">
         <v>300</v>
       </c>
       <c r="C550" s="75"/>
     </row>
-    <row r="551" spans="1:3" ht="36">
+    <row r="551" spans="1:3" ht="51">
       <c r="A551" s="30"/>
       <c r="B551" s="144" t="s">
         <v>306</v>
@@ -9314,7 +9311,7 @@
       </c>
       <c r="C566" s="9"/>
     </row>
-    <row r="571" spans="1:3" ht="18">
+    <row r="571" spans="1:3" ht="18.75">
       <c r="A571" s="63" t="s">
         <v>322</v>
       </c>
@@ -9336,7 +9333,7 @@
       </c>
       <c r="C574" s="7"/>
     </row>
-    <row r="575" spans="1:3" ht="97">
+    <row r="575" spans="1:3" ht="115.5">
       <c r="A575" s="68" t="s">
         <v>323</v>
       </c>
@@ -9363,7 +9360,7 @@
       </c>
       <c r="C578" s="7"/>
     </row>
-    <row r="579" spans="1:4" ht="25">
+    <row r="579" spans="1:4" ht="26.25">
       <c r="A579" s="69" t="s">
         <v>325</v>
       </c>
@@ -9419,7 +9416,7 @@
       <c r="B585" s="30"/>
       <c r="C585" s="9"/>
     </row>
-    <row r="588" spans="1:4" ht="18">
+    <row r="588" spans="1:4" ht="18.75">
       <c r="A588" s="63" t="s">
         <v>331</v>
       </c>
@@ -9438,7 +9435,7 @@
       </c>
       <c r="C590" s="7"/>
     </row>
-    <row r="591" spans="1:4" ht="28">
+    <row r="591" spans="1:4" ht="30">
       <c r="A591" s="82" t="s">
         <v>332</v>
       </c>
@@ -9447,42 +9444,42 @@
       </c>
       <c r="C591" s="7"/>
     </row>
-    <row r="592" spans="1:4" ht="63">
+    <row r="592" spans="1:4" ht="79.5">
       <c r="A592" s="35"/>
       <c r="B592" s="78" t="s">
         <v>334</v>
       </c>
       <c r="C592" s="7"/>
     </row>
-    <row r="593" spans="1:3" ht="39">
+    <row r="593" spans="1:3" ht="41.25">
       <c r="A593" s="35"/>
       <c r="B593" s="78" t="s">
         <v>335</v>
       </c>
       <c r="C593" s="7"/>
     </row>
-    <row r="594" spans="1:3" ht="51">
+    <row r="594" spans="1:3" ht="54">
       <c r="A594" s="35"/>
       <c r="B594" s="78" t="s">
         <v>336</v>
       </c>
       <c r="C594" s="7"/>
     </row>
-    <row r="595" spans="1:3" ht="63">
+    <row r="595" spans="1:3" ht="66.75">
       <c r="A595" s="35"/>
       <c r="B595" s="78" t="s">
         <v>337</v>
       </c>
       <c r="C595" s="7"/>
     </row>
-    <row r="596" spans="1:3" ht="27">
+    <row r="596" spans="1:3" ht="41.25">
       <c r="A596" s="35"/>
       <c r="B596" s="78" t="s">
         <v>338</v>
       </c>
       <c r="C596" s="7"/>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" ht="28.5">
       <c r="A597" s="30"/>
       <c r="B597" s="81" t="s">
         <v>339</v>
@@ -9510,7 +9507,7 @@
       </c>
       <c r="C600" s="7"/>
     </row>
-    <row r="601" spans="1:3" ht="28">
+    <row r="601" spans="1:3" ht="30">
       <c r="A601" s="79" t="s">
         <v>341</v>
       </c>
@@ -9528,7 +9525,7 @@
       </c>
       <c r="C602" s="9"/>
     </row>
-    <row r="606" spans="1:3" ht="18">
+    <row r="606" spans="1:3" ht="18.75">
       <c r="A606" s="63" t="s">
         <v>343</v>
       </c>
@@ -9630,11 +9627,11 @@
       <c r="B620" s="30"/>
       <c r="C620" s="9"/>
     </row>
-    <row r="622" spans="1:3" ht="18">
-      <c r="A622" s="167" t="s">
+    <row r="622" spans="1:3" ht="18.75">
+      <c r="A622" s="168" t="s">
         <v>346</v>
       </c>
-      <c r="B622" s="168"/>
+      <c r="B622" s="169"/>
       <c r="C622" s="95"/>
     </row>
     <row r="623" spans="1:3">
@@ -9691,14 +9688,14 @@
       </c>
       <c r="C628" s="6"/>
     </row>
-    <row r="630" spans="1:3" ht="18">
-      <c r="A630" s="169" t="s">
+    <row r="630" spans="1:3" ht="18.75">
+      <c r="A630" s="170" t="s">
         <v>355</v>
       </c>
-      <c r="B630" s="170"/>
-      <c r="C630" s="171"/>
-    </row>
-    <row r="631" spans="1:3" s="2" customFormat="1" ht="18">
+      <c r="B630" s="171"/>
+      <c r="C630" s="172"/>
+    </row>
+    <row r="631" spans="1:3" s="2" customFormat="1" ht="18.75">
       <c r="A631" s="44"/>
       <c r="B631" s="60"/>
       <c r="C631" s="67"/>
@@ -9757,7 +9754,7 @@
       </c>
       <c r="C637" s="67"/>
     </row>
-    <row r="638" spans="1:3" s="2" customFormat="1" ht="18">
+    <row r="638" spans="1:3" s="2" customFormat="1" ht="18.75">
       <c r="A638" s="44"/>
       <c r="B638" s="19"/>
       <c r="C638" s="67"/>
@@ -9785,7 +9782,7 @@
       <c r="B641" s="86"/>
       <c r="C641" s="67"/>
     </row>
-    <row r="642" spans="1:3" s="2" customFormat="1" ht="28">
+    <row r="642" spans="1:3" s="2" customFormat="1" ht="30">
       <c r="A642" s="36" t="s">
         <v>369</v>
       </c>
@@ -9943,7 +9940,7 @@
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
     </row>
-    <row r="665" spans="1:3" ht="18">
+    <row r="665" spans="1:3" ht="18.75">
       <c r="A665" s="84" t="s">
         <v>359</v>
       </c>
@@ -10033,7 +10030,7 @@
       <c r="B676" s="35"/>
       <c r="C676" s="7"/>
     </row>
-    <row r="677" spans="1:3" ht="28">
+    <row r="677" spans="1:3" ht="30">
       <c r="A677" s="36" t="s">
         <v>369</v>
       </c>
@@ -10174,7 +10171,7 @@
       <c r="B695" s="30"/>
       <c r="C695" s="9"/>
     </row>
-    <row r="698" spans="1:3" ht="18">
+    <row r="698" spans="1:3" ht="18.75">
       <c r="A698" s="63" t="s">
         <v>384</v>
       </c>
@@ -10300,7 +10297,7 @@
   <sortState ref="A163:B165">
     <sortCondition ref="A163"/>
   </sortState>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A622:B622"/>
     <mergeCell ref="A630:C630"/>
     <mergeCell ref="A1:B1"/>
@@ -10313,7 +10310,6 @@
     <mergeCell ref="A500:B500"/>
     <mergeCell ref="A501:B501"/>
     <mergeCell ref="A536:C536"/>
-    <mergeCell ref="A537:C537"/>
     <mergeCell ref="A102:B102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10327,36 +10323,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F526"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211:C214"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A393" sqref="A393:D395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="239" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="188"/>
+      <c r="C2" s="240"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="185"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1">
       <c r="B4" s="129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C4" s="130" t="s">
         <v>143</v>
@@ -10421,10 +10417,10 @@
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="223"/>
+      <c r="C11" s="189"/>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1">
       <c r="B12" s="129" t="s">
@@ -10523,49 +10519,49 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="221" t="s">
+      <c r="B21" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="223"/>
+      <c r="C21" s="189"/>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1">
-      <c r="B22" s="200" t="s">
-        <v>441</v>
-      </c>
-      <c r="C22" s="201"/>
+      <c r="B22" s="195" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="196"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="123">
         <v>1</v>
       </c>
-      <c r="B23" s="237" t="s">
+      <c r="B23" s="191" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="238"/>
+      <c r="C23" s="192"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="123">
         <v>2</v>
       </c>
-      <c r="B24" s="237" t="s">
+      <c r="B24" s="191" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="238"/>
+      <c r="C24" s="192"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="123">
         <v>3</v>
       </c>
-      <c r="B25" s="237" t="s">
+      <c r="B25" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="238"/>
-    </row>
-    <row r="27" spans="1:3" ht="18">
-      <c r="B27" s="167" t="s">
+      <c r="C25" s="192"/>
+    </row>
+    <row r="27" spans="1:3" ht="18.75">
+      <c r="B27" s="168" t="s">
         <v>386</v>
       </c>
-      <c r="C27" s="168"/>
+      <c r="C27" s="169"/>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="112" t="s">
@@ -10744,11 +10740,11 @@
       </c>
       <c r="C47" s="13"/>
     </row>
-    <row r="49" spans="1:5" ht="18">
-      <c r="B49" s="177" t="s">
+    <row r="49" spans="1:5" ht="18.75">
+      <c r="B49" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="177"/>
+      <c r="C49" s="178"/>
       <c r="E49" s="114"/>
     </row>
     <row r="50" spans="1:5">
@@ -11030,7 +11026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15">
+    <row r="75" spans="1:6" ht="15.75">
       <c r="B75" s="121" t="s">
         <v>125</v>
       </c>
@@ -11120,11 +11116,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18">
-      <c r="B85" s="177" t="s">
+    <row r="85" spans="1:3" ht="18.75">
+      <c r="B85" s="178" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="177"/>
+      <c r="C85" s="178"/>
     </row>
     <row r="86" spans="1:3">
       <c r="B86" s="112" t="s">
@@ -11132,7 +11128,7 @@
       </c>
       <c r="C86" s="113"/>
     </row>
-    <row r="87" spans="1:3" ht="42">
+    <row r="87" spans="1:3" ht="45">
       <c r="A87" s="11">
         <v>1</v>
       </c>
@@ -11142,10 +11138,10 @@
       <c r="C87" s="13"/>
     </row>
     <row r="89" spans="1:3" ht="18" customHeight="1">
-      <c r="B89" s="224" t="s">
+      <c r="B89" s="214" t="s">
         <v>290</v>
       </c>
-      <c r="C89" s="225"/>
+      <c r="C89" s="215"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="127"/>
@@ -11154,98 +11150,98 @@
       </c>
       <c r="C90" s="125"/>
     </row>
-    <row r="91" spans="1:3" ht="14" customHeight="1">
-      <c r="A91" s="197">
+    <row r="91" spans="1:3" ht="14.1" customHeight="1">
+      <c r="A91" s="222">
         <v>1</v>
       </c>
-      <c r="B91" s="189" t="s">
+      <c r="B91" s="226" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="215"/>
+      <c r="C91" s="223"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="197"/>
-      <c r="B92" s="189"/>
-      <c r="C92" s="216"/>
+      <c r="A92" s="222"/>
+      <c r="B92" s="226"/>
+      <c r="C92" s="224"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="197"/>
-      <c r="B93" s="189"/>
-      <c r="C93" s="216"/>
+      <c r="A93" s="222"/>
+      <c r="B93" s="226"/>
+      <c r="C93" s="224"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="197"/>
-      <c r="B94" s="189"/>
-      <c r="C94" s="217"/>
-    </row>
-    <row r="96" spans="1:3" ht="18">
-      <c r="B96" s="177" t="s">
+      <c r="A94" s="222"/>
+      <c r="B94" s="226"/>
+      <c r="C94" s="225"/>
+    </row>
+    <row r="96" spans="1:3" ht="18.75">
+      <c r="B96" s="178" t="s">
         <v>436</v>
       </c>
-      <c r="C96" s="177"/>
-    </row>
-    <row r="101" spans="1:3" ht="18">
-      <c r="B101" s="177" t="s">
+      <c r="C96" s="178"/>
+    </row>
+    <row r="101" spans="1:3" ht="18.75">
+      <c r="B101" s="178" t="s">
+        <v>655</v>
+      </c>
+      <c r="C101" s="178"/>
+    </row>
+    <row r="105" spans="1:3" ht="18.75">
+      <c r="B105" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="178"/>
+    </row>
+    <row r="106" spans="1:3" s="2" customFormat="1">
+      <c r="B106" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="194"/>
+    </row>
+    <row r="107" spans="1:3" ht="14.1" customHeight="1">
+      <c r="A107" s="227">
+        <v>1</v>
+      </c>
+      <c r="B107" s="226" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" s="212"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="228"/>
+      <c r="B108" s="226"/>
+      <c r="C108" s="212"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="228"/>
+      <c r="B109" s="226"/>
+      <c r="C109" s="212"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="228"/>
+      <c r="B110" s="226"/>
+      <c r="C110" s="212"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="228"/>
+      <c r="B111" s="226"/>
+      <c r="C111" s="212"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="228"/>
+      <c r="B112" s="226"/>
+      <c r="C112" s="212"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="229"/>
+      <c r="B113" s="226"/>
+      <c r="C113" s="212"/>
+    </row>
+    <row r="115" spans="1:3" ht="18.75">
+      <c r="B115" s="178" t="s">
         <v>437</v>
       </c>
-      <c r="C101" s="177"/>
-    </row>
-    <row r="105" spans="1:3" ht="18">
-      <c r="B105" s="177" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" s="177"/>
-    </row>
-    <row r="106" spans="1:3" s="2" customFormat="1">
-      <c r="B106" s="210" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="212"/>
-    </row>
-    <row r="107" spans="1:3" ht="14" customHeight="1">
-      <c r="A107" s="192">
-        <v>1</v>
-      </c>
-      <c r="B107" s="189" t="s">
-        <v>289</v>
-      </c>
-      <c r="C107" s="218"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="193"/>
-      <c r="B108" s="189"/>
-      <c r="C108" s="218"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="193"/>
-      <c r="B109" s="189"/>
-      <c r="C109" s="218"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="193"/>
-      <c r="B110" s="189"/>
-      <c r="C110" s="218"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="193"/>
-      <c r="B111" s="189"/>
-      <c r="C111" s="218"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="193"/>
-      <c r="B112" s="189"/>
-      <c r="C112" s="218"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="194"/>
-      <c r="B113" s="189"/>
-      <c r="C113" s="218"/>
-    </row>
-    <row r="115" spans="1:3" ht="18">
-      <c r="B115" s="177" t="s">
-        <v>438</v>
-      </c>
-      <c r="C115" s="177"/>
+      <c r="C115" s="178"/>
     </row>
     <row r="116" spans="1:3">
       <c r="B116" s="112" t="s">
@@ -11334,10 +11330,10 @@
       <c r="C124" s="13"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="B125" s="210" t="s">
+      <c r="B125" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="212"/>
+      <c r="C125" s="194"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="11">
@@ -11357,23 +11353,23 @@
       </c>
       <c r="C127" s="13"/>
     </row>
-    <row r="129" spans="1:4" ht="18">
-      <c r="B129" s="177" t="s">
+    <row r="129" spans="1:4" ht="18.75">
+      <c r="B129" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="C129" s="177"/>
-      <c r="D129" s="177"/>
+      <c r="C129" s="178"/>
+      <c r="D129" s="178"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="B130" s="209" t="s">
+      <c r="B130" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="C130" s="209"/>
-      <c r="D130" s="209"/>
+      <c r="C130" s="206"/>
+      <c r="D130" s="206"/>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" s="129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C131" s="131" t="s">
         <v>23</v>
@@ -11438,7 +11434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="2" customFormat="1">
+    <row r="137" spans="1:4" s="2" customFormat="1" ht="30">
       <c r="A137" s="11">
         <v>6</v>
       </c>
@@ -11583,63 +11579,63 @@
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="B151" s="210" t="s">
+      <c r="B151" s="193" t="s">
         <v>2</v>
       </c>
       <c r="C151" s="211"/>
-      <c r="D151" s="212"/>
+      <c r="D151" s="194"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="B152" s="233" t="s">
+      <c r="B152" s="216" t="s">
         <v>250</v>
       </c>
-      <c r="C152" s="234"/>
-      <c r="D152" s="235"/>
+      <c r="C152" s="217"/>
+      <c r="D152" s="218"/>
     </row>
     <row r="153" spans="1:4" s="2" customFormat="1">
-      <c r="B153" s="200" t="s">
+      <c r="B153" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="C153" s="205"/>
-      <c r="D153" s="201"/>
-    </row>
-    <row r="154" spans="1:4" ht="14" customHeight="1">
-      <c r="A154" s="197">
+      <c r="C153" s="231"/>
+      <c r="D153" s="196"/>
+    </row>
+    <row r="154" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A154" s="222">
         <v>1</v>
       </c>
-      <c r="B154" s="226" t="s">
+      <c r="B154" s="197" t="s">
         <v>251</v>
       </c>
-      <c r="C154" s="239"/>
-      <c r="D154" s="227"/>
+      <c r="C154" s="209"/>
+      <c r="D154" s="198"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="197"/>
-      <c r="B155" s="228"/>
-      <c r="C155" s="240"/>
-      <c r="D155" s="229"/>
+      <c r="A155" s="222"/>
+      <c r="B155" s="199"/>
+      <c r="C155" s="210"/>
+      <c r="D155" s="200"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="197"/>
-      <c r="B156" s="228"/>
-      <c r="C156" s="240"/>
-      <c r="D156" s="229"/>
+      <c r="A156" s="222"/>
+      <c r="B156" s="199"/>
+      <c r="C156" s="210"/>
+      <c r="D156" s="200"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="B157" s="210" t="s">
+      <c r="B157" s="193" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="211"/>
-      <c r="D157" s="212"/>
+      <c r="D157" s="194"/>
     </row>
     <row r="158" spans="1:4" s="2" customFormat="1">
       <c r="B158" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="C158" s="196" t="s">
+      <c r="C158" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="D158" s="196"/>
+      <c r="D158" s="203"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="11">
@@ -11648,10 +11644,10 @@
       <c r="B159" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C159" s="213" t="s">
-        <v>60</v>
-      </c>
-      <c r="D159" s="214"/>
+      <c r="C159" s="235" t="s">
+        <v>60</v>
+      </c>
+      <c r="D159" s="236"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="11">
@@ -11660,10 +11656,10 @@
       <c r="B160" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C160" s="213" t="s">
-        <v>60</v>
-      </c>
-      <c r="D160" s="214"/>
+      <c r="C160" s="235" t="s">
+        <v>60</v>
+      </c>
+      <c r="D160" s="236"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="11">
@@ -11672,156 +11668,156 @@
       <c r="B161" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C161" s="213" t="s">
-        <v>60</v>
-      </c>
-      <c r="D161" s="214"/>
+      <c r="C161" s="235" t="s">
+        <v>60</v>
+      </c>
+      <c r="D161" s="236"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="B162" s="210" t="s">
+      <c r="B162" s="193" t="s">
         <v>262</v>
       </c>
       <c r="C162" s="211"/>
-      <c r="D162" s="212"/>
+      <c r="D162" s="194"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="B163" s="200" t="s">
-        <v>440</v>
-      </c>
-      <c r="C163" s="205"/>
-      <c r="D163" s="201"/>
+      <c r="B163" s="195" t="s">
+        <v>439</v>
+      </c>
+      <c r="C163" s="231"/>
+      <c r="D163" s="196"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="123">
         <v>1</v>
       </c>
-      <c r="B164" s="206" t="s">
+      <c r="B164" s="232" t="s">
         <v>264</v>
       </c>
-      <c r="C164" s="207"/>
-      <c r="D164" s="208"/>
+      <c r="C164" s="233"/>
+      <c r="D164" s="234"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="123">
         <v>2</v>
       </c>
-      <c r="B165" s="206" t="s">
+      <c r="B165" s="232" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="207"/>
-      <c r="D165" s="208"/>
+      <c r="C165" s="233"/>
+      <c r="D165" s="234"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="123">
         <v>3</v>
       </c>
-      <c r="B166" s="206" t="s">
+      <c r="B166" s="232" t="s">
         <v>263</v>
       </c>
-      <c r="C166" s="207"/>
-      <c r="D166" s="208"/>
-    </row>
-    <row r="168" spans="1:4" ht="18">
-      <c r="B168" s="177" t="s">
+      <c r="C166" s="233"/>
+      <c r="D166" s="234"/>
+    </row>
+    <row r="168" spans="1:4" ht="18.75">
+      <c r="B168" s="178" t="s">
+        <v>441</v>
+      </c>
+      <c r="C168" s="178"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="B169" s="206" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="206"/>
+      <c r="D169" s="133"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="B170" s="207" t="s">
+        <v>250</v>
+      </c>
+      <c r="C170" s="207"/>
+      <c r="D170" s="133"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="B171" s="195" t="s">
+        <v>249</v>
+      </c>
+      <c r="C171" s="196"/>
+      <c r="D171" s="133"/>
+    </row>
+    <row r="172" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A172" s="230">
+        <v>1</v>
+      </c>
+      <c r="B172" s="226" t="s">
         <v>442</v>
       </c>
-      <c r="C168" s="177"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="B169" s="209" t="s">
-        <v>2</v>
-      </c>
-      <c r="C169" s="209"/>
-      <c r="D169" s="133"/>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="B170" s="195" t="s">
-        <v>250</v>
-      </c>
-      <c r="C170" s="195"/>
-      <c r="D170" s="133"/>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="B171" s="200" t="s">
-        <v>249</v>
-      </c>
-      <c r="C171" s="201"/>
-      <c r="D171" s="133"/>
-    </row>
-    <row r="172" spans="1:4" ht="14" customHeight="1">
-      <c r="A172" s="204">
-        <v>1</v>
-      </c>
-      <c r="B172" s="189" t="s">
-        <v>443</v>
-      </c>
-      <c r="C172" s="189"/>
+      <c r="C172" s="226"/>
       <c r="D172" s="133"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="204"/>
-      <c r="B173" s="189"/>
-      <c r="C173" s="189"/>
+      <c r="A173" s="230"/>
+      <c r="B173" s="226"/>
+      <c r="C173" s="226"/>
       <c r="D173" s="133"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="204"/>
-      <c r="B174" s="189"/>
-      <c r="C174" s="189"/>
+      <c r="A174" s="230"/>
+      <c r="B174" s="226"/>
+      <c r="C174" s="226"/>
       <c r="D174" s="133"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="204"/>
-      <c r="B175" s="189"/>
-      <c r="C175" s="189"/>
+      <c r="A175" s="230"/>
+      <c r="B175" s="226"/>
+      <c r="C175" s="226"/>
       <c r="D175" s="133"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="204"/>
-      <c r="B176" s="189"/>
-      <c r="C176" s="189"/>
+      <c r="A176" s="230"/>
+      <c r="B176" s="226"/>
+      <c r="C176" s="226"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="204"/>
-      <c r="B177" s="189"/>
-      <c r="C177" s="189"/>
+      <c r="A177" s="230"/>
+      <c r="B177" s="226"/>
+      <c r="C177" s="226"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="204"/>
-      <c r="B178" s="189"/>
-      <c r="C178" s="189"/>
+      <c r="A178" s="230"/>
+      <c r="B178" s="226"/>
+      <c r="C178" s="226"/>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="204"/>
-      <c r="B179" s="189"/>
-      <c r="C179" s="189"/>
+      <c r="A179" s="230"/>
+      <c r="B179" s="226"/>
+      <c r="C179" s="226"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="204"/>
-      <c r="B180" s="189"/>
-      <c r="C180" s="189"/>
+      <c r="A180" s="230"/>
+      <c r="B180" s="226"/>
+      <c r="C180" s="226"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="204"/>
-      <c r="B181" s="189"/>
-      <c r="C181" s="189"/>
+      <c r="A181" s="230"/>
+      <c r="B181" s="226"/>
+      <c r="C181" s="226"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="204"/>
-      <c r="B182" s="189"/>
-      <c r="C182" s="189"/>
+      <c r="A182" s="230"/>
+      <c r="B182" s="226"/>
+      <c r="C182" s="226"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="204"/>
-      <c r="B183" s="189"/>
-      <c r="C183" s="189"/>
+      <c r="A183" s="230"/>
+      <c r="B183" s="226"/>
+      <c r="C183" s="226"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="B184" s="210" t="s">
+      <c r="B184" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="C184" s="212"/>
+      <c r="C184" s="194"/>
       <c r="D184" s="133"/>
     </row>
     <row r="185" spans="1:4">
@@ -11855,7 +11851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" ht="30">
       <c r="A188" s="138">
         <v>3</v>
       </c>
@@ -11866,17 +11862,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="18">
-      <c r="B190" s="177" t="s">
+    <row r="190" spans="1:4" ht="18.75">
+      <c r="B190" s="178" t="s">
         <v>322</v>
       </c>
-      <c r="C190" s="177"/>
+      <c r="C190" s="178"/>
     </row>
     <row r="191" spans="1:4">
-      <c r="B191" s="232" t="s">
+      <c r="B191" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="C191" s="232"/>
+      <c r="C191" s="186"/>
     </row>
     <row r="192" spans="1:4">
       <c r="B192" s="139" t="s">
@@ -11886,7 +11882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="14" customHeight="1">
+    <row r="193" spans="2:3" ht="14.1" customHeight="1">
       <c r="B193" s="68" t="s">
         <v>328</v>
       </c>
@@ -11939,92 +11935,92 @@
       </c>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="210" t="s">
+      <c r="B200" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C200" s="212"/>
+      <c r="C200" s="194"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="200" t="s">
+      <c r="B201" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="C201" s="201"/>
+      <c r="C201" s="196"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="226" t="s">
+      <c r="B202" s="197" t="s">
         <v>323</v>
       </c>
-      <c r="C202" s="227"/>
+      <c r="C202" s="198"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="228"/>
-      <c r="C203" s="229"/>
+      <c r="B203" s="199"/>
+      <c r="C203" s="200"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="228"/>
-      <c r="C204" s="229"/>
+      <c r="B204" s="199"/>
+      <c r="C204" s="200"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="228"/>
-      <c r="C205" s="229"/>
-    </row>
-    <row r="206" spans="2:3" ht="14" customHeight="1">
-      <c r="B206" s="230"/>
-      <c r="C206" s="231"/>
-    </row>
-    <row r="208" spans="2:3" ht="18">
-      <c r="B208" s="177" t="s">
+      <c r="B205" s="199"/>
+      <c r="C205" s="200"/>
+    </row>
+    <row r="206" spans="2:3" ht="14.1" customHeight="1">
+      <c r="B206" s="201"/>
+      <c r="C206" s="202"/>
+    </row>
+    <row r="208" spans="2:3" ht="18.75">
+      <c r="B208" s="178" t="s">
         <v>292</v>
       </c>
-      <c r="C208" s="177"/>
+      <c r="C208" s="178"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="B209" s="210" t="s">
+      <c r="B209" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C209" s="212"/>
+      <c r="C209" s="194"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="B210" s="200" t="s">
+      <c r="B210" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="C210" s="201"/>
+      <c r="C210" s="196"/>
     </row>
     <row r="211" spans="1:4">
-      <c r="B211" s="226" t="s">
-        <v>560</v>
-      </c>
-      <c r="C211" s="227"/>
+      <c r="B211" s="197" t="s">
+        <v>559</v>
+      </c>
+      <c r="C211" s="198"/>
     </row>
     <row r="212" spans="1:4">
-      <c r="B212" s="228"/>
-      <c r="C212" s="229"/>
+      <c r="B212" s="199"/>
+      <c r="C212" s="200"/>
     </row>
     <row r="213" spans="1:4">
-      <c r="B213" s="228"/>
-      <c r="C213" s="229"/>
+      <c r="B213" s="199"/>
+      <c r="C213" s="200"/>
     </row>
     <row r="214" spans="1:4">
-      <c r="B214" s="230"/>
-      <c r="C214" s="231"/>
+      <c r="B214" s="201"/>
+      <c r="C214" s="202"/>
     </row>
     <row r="216" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B216" s="219" t="s">
-        <v>444</v>
-      </c>
-      <c r="C216" s="220"/>
-      <c r="D216" s="220"/>
+      <c r="B216" s="204" t="s">
+        <v>443</v>
+      </c>
+      <c r="C216" s="205"/>
+      <c r="D216" s="205"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="B217" s="209" t="s">
+      <c r="B217" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="C217" s="209"/>
-      <c r="D217" s="209"/>
+      <c r="C217" s="206"/>
+      <c r="D217" s="206"/>
     </row>
     <row r="218" spans="1:4">
       <c r="B218" s="140" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C218" s="130" t="s">
         <v>23</v>
@@ -12167,7 +12163,7 @@
       <c r="C230" s="149"/>
       <c r="D230" s="149"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" ht="30">
       <c r="A231" s="11">
         <v>13</v>
       </c>
@@ -12451,76 +12447,76 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="19"/>
-      <c r="B259" s="209" t="s">
+      <c r="B259" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="C259" s="209"/>
-      <c r="D259" s="209"/>
+      <c r="C259" s="206"/>
+      <c r="D259" s="206"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="19"/>
-      <c r="B260" s="195" t="s">
+      <c r="B260" s="207" t="s">
         <v>149</v>
       </c>
-      <c r="C260" s="195"/>
-      <c r="D260" s="195"/>
+      <c r="C260" s="207"/>
+      <c r="D260" s="207"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="19"/>
-      <c r="B261" s="196" t="s">
+      <c r="B261" s="203" t="s">
         <v>249</v>
       </c>
-      <c r="C261" s="196"/>
-      <c r="D261" s="196"/>
+      <c r="C261" s="203"/>
+      <c r="D261" s="203"/>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
-      <c r="A262" s="197">
+      <c r="A262" s="222">
         <v>1</v>
       </c>
-      <c r="B262" s="189" t="s">
+      <c r="B262" s="226" t="s">
         <v>150</v>
       </c>
-      <c r="C262" s="189"/>
-      <c r="D262" s="189"/>
+      <c r="C262" s="226"/>
+      <c r="D262" s="226"/>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="197"/>
-      <c r="B263" s="189"/>
-      <c r="C263" s="189"/>
-      <c r="D263" s="189"/>
+      <c r="A263" s="222"/>
+      <c r="B263" s="226"/>
+      <c r="C263" s="226"/>
+      <c r="D263" s="226"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="197"/>
-      <c r="B264" s="189"/>
-      <c r="C264" s="189"/>
-      <c r="D264" s="189"/>
+      <c r="A264" s="222"/>
+      <c r="B264" s="226"/>
+      <c r="C264" s="226"/>
+      <c r="D264" s="226"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="197"/>
-      <c r="B265" s="189"/>
-      <c r="C265" s="189"/>
-      <c r="D265" s="189"/>
+      <c r="A265" s="222"/>
+      <c r="B265" s="226"/>
+      <c r="C265" s="226"/>
+      <c r="D265" s="226"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="197"/>
-      <c r="B266" s="189"/>
-      <c r="C266" s="189"/>
-      <c r="D266" s="189"/>
+      <c r="A266" s="222"/>
+      <c r="B266" s="226"/>
+      <c r="C266" s="226"/>
+      <c r="D266" s="226"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="19"/>
-      <c r="B267" s="198" t="s">
+      <c r="B267" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="C267" s="199"/>
-      <c r="D267" s="199"/>
+      <c r="C267" s="238"/>
+      <c r="D267" s="238"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="19"/>
-      <c r="B268" s="200" t="s">
-        <v>249</v>
-      </c>
-      <c r="C268" s="201"/>
+      <c r="B268" s="195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C268" s="196"/>
       <c r="D268" s="140" t="s">
         <v>23</v>
       </c>
@@ -12529,10 +12525,10 @@
       <c r="A269" s="11">
         <v>1</v>
       </c>
-      <c r="B269" s="202" t="s">
+      <c r="B269" s="208" t="s">
         <v>155</v>
       </c>
-      <c r="C269" s="202"/>
+      <c r="C269" s="208"/>
       <c r="D269" s="141" t="s">
         <v>60</v>
       </c>
@@ -12541,10 +12537,10 @@
       <c r="A270" s="11">
         <v>2</v>
       </c>
-      <c r="B270" s="202" t="s">
+      <c r="B270" s="208" t="s">
         <v>154</v>
       </c>
-      <c r="C270" s="202"/>
+      <c r="C270" s="208"/>
       <c r="D270" s="141" t="s">
         <v>60</v>
       </c>
@@ -12553,10 +12549,10 @@
       <c r="A271" s="11">
         <v>3</v>
       </c>
-      <c r="B271" s="202" t="s">
+      <c r="B271" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="C271" s="202"/>
+      <c r="C271" s="208"/>
       <c r="D271" s="141" t="s">
         <v>60</v>
       </c>
@@ -12565,10 +12561,10 @@
       <c r="A272" s="11">
         <v>4</v>
       </c>
-      <c r="B272" s="203" t="s">
+      <c r="B272" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="C272" s="203"/>
+      <c r="C272" s="190"/>
       <c r="D272" s="141" t="s">
         <v>60</v>
       </c>
@@ -12577,10 +12573,10 @@
       <c r="A273" s="11">
         <v>5</v>
       </c>
-      <c r="B273" s="202" t="s">
+      <c r="B273" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="C273" s="202"/>
+      <c r="C273" s="208"/>
       <c r="D273" s="141" t="s">
         <v>60</v>
       </c>
@@ -12589,10 +12585,10 @@
       <c r="A274" s="11">
         <v>6</v>
       </c>
-      <c r="B274" s="202" t="s">
+      <c r="B274" s="208" t="s">
         <v>156</v>
       </c>
-      <c r="C274" s="202"/>
+      <c r="C274" s="208"/>
       <c r="D274" s="141" t="s">
         <v>60</v>
       </c>
@@ -12601,10 +12597,10 @@
       <c r="A275" s="11">
         <v>7</v>
       </c>
-      <c r="B275" s="202" t="s">
+      <c r="B275" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="C275" s="202"/>
+      <c r="C275" s="208"/>
       <c r="D275" s="141" t="s">
         <v>60</v>
       </c>
@@ -12613,242 +12609,242 @@
       <c r="A276" s="11">
         <v>8</v>
       </c>
-      <c r="B276" s="202" t="s">
+      <c r="B276" s="208" t="s">
         <v>153</v>
       </c>
-      <c r="C276" s="202"/>
+      <c r="C276" s="208"/>
       <c r="D276" s="141" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="B277" s="236" t="s">
+      <c r="B277" s="219" t="s">
         <v>57</v>
       </c>
-      <c r="C277" s="236"/>
-      <c r="D277" s="236"/>
+      <c r="C277" s="219"/>
+      <c r="D277" s="219"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="B278" s="190" t="s">
+      <c r="B278" s="220" t="s">
         <v>203</v>
       </c>
-      <c r="C278" s="190"/>
-      <c r="D278" s="190"/>
+      <c r="C278" s="220"/>
+      <c r="D278" s="220"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="B279" s="191" t="s">
-        <v>445</v>
-      </c>
-      <c r="C279" s="191"/>
-      <c r="D279" s="191"/>
+      <c r="B279" s="221" t="s">
+        <v>444</v>
+      </c>
+      <c r="C279" s="221"/>
+      <c r="D279" s="221"/>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1">
-      <c r="A280" s="192">
+      <c r="A280" s="227">
         <v>1</v>
       </c>
-      <c r="B280" s="189" t="s">
+      <c r="B280" s="226" t="s">
         <v>204</v>
       </c>
-      <c r="C280" s="189"/>
-      <c r="D280" s="189"/>
+      <c r="C280" s="226"/>
+      <c r="D280" s="226"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="193"/>
-      <c r="B281" s="189"/>
-      <c r="C281" s="189"/>
-      <c r="D281" s="189"/>
+      <c r="A281" s="228"/>
+      <c r="B281" s="226"/>
+      <c r="C281" s="226"/>
+      <c r="D281" s="226"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="194"/>
-      <c r="B282" s="189"/>
-      <c r="C282" s="189"/>
-      <c r="D282" s="189"/>
+      <c r="A282" s="229"/>
+      <c r="B282" s="226"/>
+      <c r="C282" s="226"/>
+      <c r="D282" s="226"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="B283" s="190" t="s">
+      <c r="B283" s="220" t="s">
         <v>195</v>
       </c>
-      <c r="C283" s="190"/>
-      <c r="D283" s="190"/>
+      <c r="C283" s="220"/>
+      <c r="D283" s="220"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="B284" s="196" t="s">
-        <v>445</v>
-      </c>
-      <c r="C284" s="196"/>
-      <c r="D284" s="196"/>
+      <c r="B284" s="203" t="s">
+        <v>444</v>
+      </c>
+      <c r="C284" s="203"/>
+      <c r="D284" s="203"/>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
-      <c r="A285" s="192">
+      <c r="A285" s="227">
         <v>1</v>
       </c>
-      <c r="B285" s="189" t="s">
+      <c r="B285" s="226" t="s">
         <v>196</v>
       </c>
-      <c r="C285" s="189"/>
-      <c r="D285" s="189"/>
+      <c r="C285" s="226"/>
+      <c r="D285" s="226"/>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="193"/>
-      <c r="B286" s="189"/>
-      <c r="C286" s="189"/>
-      <c r="D286" s="189"/>
+      <c r="A286" s="228"/>
+      <c r="B286" s="226"/>
+      <c r="C286" s="226"/>
+      <c r="D286" s="226"/>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="193"/>
-      <c r="B287" s="189"/>
-      <c r="C287" s="189"/>
-      <c r="D287" s="189"/>
+      <c r="A287" s="228"/>
+      <c r="B287" s="226"/>
+      <c r="C287" s="226"/>
+      <c r="D287" s="226"/>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="193"/>
-      <c r="B288" s="189"/>
-      <c r="C288" s="189"/>
-      <c r="D288" s="189"/>
+      <c r="A288" s="228"/>
+      <c r="B288" s="226"/>
+      <c r="C288" s="226"/>
+      <c r="D288" s="226"/>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="194"/>
-      <c r="B289" s="189"/>
-      <c r="C289" s="189"/>
-      <c r="D289" s="189"/>
+      <c r="A289" s="229"/>
+      <c r="B289" s="226"/>
+      <c r="C289" s="226"/>
+      <c r="D289" s="226"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="B290" s="195" t="s">
+      <c r="B290" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="C290" s="195"/>
-      <c r="D290" s="195"/>
+      <c r="C290" s="207"/>
+      <c r="D290" s="207"/>
     </row>
     <row r="291" spans="1:4">
-      <c r="B291" s="196" t="s">
-        <v>445</v>
-      </c>
-      <c r="C291" s="196"/>
-      <c r="D291" s="196"/>
+      <c r="B291" s="203" t="s">
+        <v>444</v>
+      </c>
+      <c r="C291" s="203"/>
+      <c r="D291" s="203"/>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1">
-      <c r="A292" s="192">
+      <c r="A292" s="227">
         <v>1</v>
       </c>
-      <c r="B292" s="189" t="s">
+      <c r="B292" s="226" t="s">
         <v>198</v>
       </c>
-      <c r="C292" s="189"/>
-      <c r="D292" s="189"/>
+      <c r="C292" s="226"/>
+      <c r="D292" s="226"/>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="193"/>
-      <c r="B293" s="189"/>
-      <c r="C293" s="189"/>
-      <c r="D293" s="189"/>
+      <c r="A293" s="228"/>
+      <c r="B293" s="226"/>
+      <c r="C293" s="226"/>
+      <c r="D293" s="226"/>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="193"/>
-      <c r="B294" s="189"/>
-      <c r="C294" s="189"/>
-      <c r="D294" s="189"/>
+      <c r="A294" s="228"/>
+      <c r="B294" s="226"/>
+      <c r="C294" s="226"/>
+      <c r="D294" s="226"/>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="194"/>
-      <c r="B295" s="189"/>
-      <c r="C295" s="189"/>
-      <c r="D295" s="189"/>
+      <c r="A295" s="229"/>
+      <c r="B295" s="226"/>
+      <c r="C295" s="226"/>
+      <c r="D295" s="226"/>
     </row>
     <row r="296" spans="1:4">
-      <c r="B296" s="195" t="s">
+      <c r="B296" s="207" t="s">
         <v>201</v>
       </c>
-      <c r="C296" s="195"/>
-      <c r="D296" s="195"/>
+      <c r="C296" s="207"/>
+      <c r="D296" s="207"/>
     </row>
     <row r="297" spans="1:4">
-      <c r="B297" s="196" t="s">
-        <v>445</v>
-      </c>
-      <c r="C297" s="196"/>
-      <c r="D297" s="196"/>
+      <c r="B297" s="203" t="s">
+        <v>444</v>
+      </c>
+      <c r="C297" s="203"/>
+      <c r="D297" s="203"/>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1">
-      <c r="A298" s="192">
+      <c r="A298" s="227">
         <v>1</v>
       </c>
-      <c r="B298" s="189" t="s">
+      <c r="B298" s="226" t="s">
         <v>202</v>
       </c>
-      <c r="C298" s="189"/>
-      <c r="D298" s="189"/>
+      <c r="C298" s="226"/>
+      <c r="D298" s="226"/>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="193"/>
-      <c r="B299" s="189"/>
-      <c r="C299" s="189"/>
-      <c r="D299" s="189"/>
+      <c r="A299" s="228"/>
+      <c r="B299" s="226"/>
+      <c r="C299" s="226"/>
+      <c r="D299" s="226"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="193"/>
-      <c r="B300" s="189"/>
-      <c r="C300" s="189"/>
-      <c r="D300" s="189"/>
+      <c r="A300" s="228"/>
+      <c r="B300" s="226"/>
+      <c r="C300" s="226"/>
+      <c r="D300" s="226"/>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="194"/>
-      <c r="B301" s="189"/>
-      <c r="C301" s="189"/>
-      <c r="D301" s="189"/>
+      <c r="A301" s="229"/>
+      <c r="B301" s="226"/>
+      <c r="C301" s="226"/>
+      <c r="D301" s="226"/>
     </row>
     <row r="302" spans="1:4">
-      <c r="B302" s="195" t="s">
+      <c r="B302" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="C302" s="195"/>
-      <c r="D302" s="195"/>
+      <c r="C302" s="207"/>
+      <c r="D302" s="207"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="B303" s="196" t="s">
-        <v>445</v>
-      </c>
-      <c r="C303" s="196"/>
-      <c r="D303" s="196"/>
+      <c r="B303" s="203" t="s">
+        <v>444</v>
+      </c>
+      <c r="C303" s="203"/>
+      <c r="D303" s="203"/>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1">
-      <c r="A304" s="192">
+      <c r="A304" s="227">
         <v>1</v>
       </c>
-      <c r="B304" s="189" t="s">
+      <c r="B304" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="C304" s="189"/>
-      <c r="D304" s="189"/>
+      <c r="C304" s="226"/>
+      <c r="D304" s="226"/>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="193"/>
-      <c r="B305" s="189"/>
-      <c r="C305" s="189"/>
-      <c r="D305" s="189"/>
+      <c r="A305" s="228"/>
+      <c r="B305" s="226"/>
+      <c r="C305" s="226"/>
+      <c r="D305" s="226"/>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="194"/>
-      <c r="B306" s="189"/>
-      <c r="C306" s="189"/>
-      <c r="D306" s="189"/>
-    </row>
-    <row r="308" spans="1:6" ht="18">
-      <c r="B308" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="C308" s="177"/>
+      <c r="A306" s="229"/>
+      <c r="B306" s="226"/>
+      <c r="C306" s="226"/>
+      <c r="D306" s="226"/>
+    </row>
+    <row r="308" spans="1:6" ht="18.75">
+      <c r="B308" s="178" t="s">
+        <v>448</v>
+      </c>
+      <c r="C308" s="178"/>
       <c r="D308" s="95"/>
     </row>
     <row r="309" spans="1:6">
-      <c r="B309" s="242" t="s">
+      <c r="B309" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C309" s="242"/>
+      <c r="C309" s="187"/>
       <c r="D309" s="157"/>
     </row>
     <row r="310" spans="1:6">
-      <c r="B310" s="154" t="s">
-        <v>439</v>
+      <c r="B310" s="167" t="s">
+        <v>37</v>
       </c>
       <c r="C310" s="131" t="s">
         <v>38</v>
@@ -12922,7 +12918,7 @@
       </c>
       <c r="C317" s="153"/>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" ht="30">
       <c r="A318" s="11">
         <v>8</v>
       </c>
@@ -12949,7 +12945,7 @@
       </c>
       <c r="C320" s="153"/>
       <c r="F320" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -12988,7 +12984,7 @@
       </c>
       <c r="C324" s="153"/>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" ht="30">
       <c r="A325" s="11">
         <v>15</v>
       </c>
@@ -13047,7 +13043,7 @@
         <v>21</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C331" s="153"/>
     </row>
@@ -13135,10 +13131,10 @@
       <c r="C340" s="153"/>
     </row>
     <row r="341" spans="1:4">
-      <c r="B341" s="221" t="s">
+      <c r="B341" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C341" s="223"/>
+      <c r="C341" s="189"/>
     </row>
     <row r="342" spans="1:4">
       <c r="B342" s="151" t="s">
@@ -13146,24 +13142,24 @@
       </c>
       <c r="C342" s="152"/>
     </row>
-    <row r="343" spans="1:4" ht="28" customHeight="1">
+    <row r="343" spans="1:4" ht="27.95" customHeight="1">
       <c r="A343" s="123">
         <v>1</v>
       </c>
-      <c r="B343" s="203" t="s">
+      <c r="B343" s="190" t="s">
         <v>205</v>
       </c>
-      <c r="C343" s="203"/>
+      <c r="C343" s="190"/>
     </row>
     <row r="344" spans="1:4">
-      <c r="B344" s="221" t="s">
+      <c r="B344" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="C344" s="223"/>
+      <c r="C344" s="189"/>
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1">
       <c r="B345" s="154" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C345" s="154" t="s">
         <v>23</v>
@@ -13191,23 +13187,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="18">
-      <c r="B349" s="177" t="s">
-        <v>447</v>
-      </c>
-      <c r="C349" s="177"/>
-      <c r="D349" s="177"/>
+    <row r="349" spans="1:4" ht="18.75">
+      <c r="B349" s="178" t="s">
+        <v>446</v>
+      </c>
+      <c r="C349" s="178"/>
+      <c r="D349" s="178"/>
     </row>
     <row r="350" spans="1:4">
-      <c r="B350" s="185" t="s">
+      <c r="B350" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="C350" s="241"/>
-      <c r="D350" s="186"/>
+      <c r="C350" s="184"/>
+      <c r="D350" s="185"/>
     </row>
     <row r="351" spans="1:4">
-      <c r="B351" s="154" t="s">
-        <v>439</v>
+      <c r="B351" s="167" t="s">
+        <v>37</v>
       </c>
       <c r="C351" s="130" t="s">
         <v>23</v>
@@ -13492,7 +13488,7 @@
       <c r="C377" s="155"/>
       <c r="D377" s="155"/>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" ht="30">
       <c r="A378" s="11">
         <v>27</v>
       </c>
@@ -13633,11 +13629,11 @@
       <c r="D391" s="105"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="B392" s="232" t="s">
+      <c r="B392" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C392" s="232"/>
-      <c r="D392" s="232"/>
+      <c r="C392" s="186"/>
+      <c r="D392" s="186"/>
     </row>
     <row r="393" spans="1:4">
       <c r="B393" s="156" t="s">
@@ -13650,7 +13646,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="28">
+    <row r="394" spans="1:4" ht="45">
       <c r="A394" s="123">
         <v>1</v>
       </c>
@@ -13675,19 +13671,19 @@
     <row r="413" spans="3:3">
       <c r="C413" s="2"/>
     </row>
-    <row r="466" spans="1:4" ht="18">
-      <c r="B466" s="219" t="s">
+    <row r="466" spans="1:4" ht="18.75">
+      <c r="B466" s="204" t="s">
         <v>209</v>
       </c>
-      <c r="C466" s="220"/>
-      <c r="D466" s="220"/>
+      <c r="C466" s="205"/>
+      <c r="D466" s="205"/>
     </row>
     <row r="467" spans="1:4">
-      <c r="B467" s="209" t="s">
+      <c r="B467" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="C467" s="209"/>
-      <c r="D467" s="209"/>
+      <c r="C467" s="206"/>
+      <c r="D467" s="206"/>
     </row>
     <row r="468" spans="1:4">
       <c r="B468" s="146" t="s">
@@ -13776,7 +13772,7 @@
       </c>
       <c r="D475" s="145"/>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" ht="30">
       <c r="A476" s="150">
         <v>8</v>
       </c>
@@ -13987,20 +13983,20 @@
       <c r="D495" s="145"/>
     </row>
     <row r="496" spans="1:4">
-      <c r="B496" s="221" t="s">
+      <c r="B496" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C496" s="222"/>
-      <c r="D496" s="223"/>
+      <c r="C496" s="213"/>
+      <c r="D496" s="189"/>
     </row>
     <row r="497" spans="1:4">
       <c r="B497" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="C497" s="196" t="s">
+      <c r="C497" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="D497" s="196"/>
+      <c r="D497" s="203"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="11">
@@ -14009,10 +14005,10 @@
       <c r="B498" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C498" s="218" t="s">
-        <v>60</v>
-      </c>
-      <c r="D498" s="218"/>
+      <c r="C498" s="212" t="s">
+        <v>60</v>
+      </c>
+      <c r="D498" s="212"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="11">
@@ -14021,19 +14017,19 @@
       <c r="B499" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C499" s="218" t="s">
-        <v>60</v>
-      </c>
-      <c r="D499" s="218"/>
+      <c r="C499" s="212" t="s">
+        <v>60</v>
+      </c>
+      <c r="D499" s="212"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="B500" s="209" t="s">
+      <c r="B500" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="C500" s="209"/>
-      <c r="D500" s="209"/>
-    </row>
-    <row r="501" spans="1:4" ht="28">
+      <c r="C500" s="206"/>
+      <c r="D500" s="206"/>
+    </row>
+    <row r="501" spans="1:4" ht="30">
       <c r="B501" s="146" t="s">
         <v>212</v>
       </c>
@@ -14073,202 +14069,247 @@
       </c>
     </row>
     <row r="504" spans="1:4">
-      <c r="B504" s="209" t="s">
+      <c r="B504" s="206" t="s">
         <v>57</v>
       </c>
-      <c r="C504" s="209"/>
-      <c r="D504" s="209"/>
+      <c r="C504" s="206"/>
+      <c r="D504" s="206"/>
     </row>
     <row r="505" spans="1:4">
-      <c r="B505" s="190" t="s">
+      <c r="B505" s="220" t="s">
         <v>197</v>
       </c>
-      <c r="C505" s="190"/>
-      <c r="D505" s="190"/>
+      <c r="C505" s="220"/>
+      <c r="D505" s="220"/>
     </row>
     <row r="506" spans="1:4">
-      <c r="B506" s="191" t="s">
+      <c r="B506" s="221" t="s">
         <v>197</v>
       </c>
-      <c r="C506" s="191"/>
-      <c r="D506" s="191"/>
+      <c r="C506" s="221"/>
+      <c r="D506" s="221"/>
     </row>
     <row r="507" spans="1:4">
-      <c r="A507" s="192">
+      <c r="A507" s="227">
         <v>1</v>
       </c>
-      <c r="B507" s="189" t="s">
+      <c r="B507" s="226" t="s">
         <v>198</v>
       </c>
-      <c r="C507" s="189"/>
-      <c r="D507" s="189"/>
+      <c r="C507" s="226"/>
+      <c r="D507" s="226"/>
     </row>
     <row r="508" spans="1:4">
-      <c r="A508" s="193"/>
-      <c r="B508" s="189"/>
-      <c r="C508" s="189"/>
-      <c r="D508" s="189"/>
+      <c r="A508" s="228"/>
+      <c r="B508" s="226"/>
+      <c r="C508" s="226"/>
+      <c r="D508" s="226"/>
     </row>
     <row r="509" spans="1:4">
-      <c r="A509" s="193"/>
-      <c r="B509" s="189"/>
-      <c r="C509" s="189"/>
-      <c r="D509" s="189"/>
+      <c r="A509" s="228"/>
+      <c r="B509" s="226"/>
+      <c r="C509" s="226"/>
+      <c r="D509" s="226"/>
     </row>
     <row r="510" spans="1:4">
-      <c r="A510" s="194"/>
-      <c r="B510" s="189"/>
-      <c r="C510" s="189"/>
-      <c r="D510" s="189"/>
+      <c r="A510" s="229"/>
+      <c r="B510" s="226"/>
+      <c r="C510" s="226"/>
+      <c r="D510" s="226"/>
     </row>
     <row r="511" spans="1:4">
-      <c r="B511" s="190" t="s">
+      <c r="B511" s="220" t="s">
         <v>199</v>
       </c>
-      <c r="C511" s="190"/>
-      <c r="D511" s="190"/>
+      <c r="C511" s="220"/>
+      <c r="D511" s="220"/>
     </row>
     <row r="512" spans="1:4">
-      <c r="B512" s="191" t="s">
+      <c r="B512" s="221" t="s">
         <v>199</v>
       </c>
-      <c r="C512" s="191"/>
-      <c r="D512" s="191"/>
+      <c r="C512" s="221"/>
+      <c r="D512" s="221"/>
     </row>
     <row r="513" spans="1:4">
-      <c r="A513" s="192">
+      <c r="A513" s="227">
         <v>1</v>
       </c>
-      <c r="B513" s="189" t="s">
+      <c r="B513" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="C513" s="189"/>
-      <c r="D513" s="189"/>
+      <c r="C513" s="226"/>
+      <c r="D513" s="226"/>
     </row>
     <row r="514" spans="1:4">
-      <c r="A514" s="193"/>
-      <c r="B514" s="189"/>
-      <c r="C514" s="189"/>
-      <c r="D514" s="189"/>
+      <c r="A514" s="228"/>
+      <c r="B514" s="226"/>
+      <c r="C514" s="226"/>
+      <c r="D514" s="226"/>
     </row>
     <row r="515" spans="1:4">
-      <c r="A515" s="194"/>
-      <c r="B515" s="189"/>
-      <c r="C515" s="189"/>
-      <c r="D515" s="189"/>
+      <c r="A515" s="229"/>
+      <c r="B515" s="226"/>
+      <c r="C515" s="226"/>
+      <c r="D515" s="226"/>
     </row>
     <row r="516" spans="1:4">
-      <c r="B516" s="190" t="s">
+      <c r="B516" s="220" t="s">
         <v>201</v>
       </c>
-      <c r="C516" s="190"/>
-      <c r="D516" s="190"/>
+      <c r="C516" s="220"/>
+      <c r="D516" s="220"/>
     </row>
     <row r="517" spans="1:4">
-      <c r="B517" s="191" t="s">
+      <c r="B517" s="221" t="s">
         <v>201</v>
       </c>
-      <c r="C517" s="191"/>
-      <c r="D517" s="191"/>
+      <c r="C517" s="221"/>
+      <c r="D517" s="221"/>
     </row>
     <row r="518" spans="1:4">
-      <c r="A518" s="192">
+      <c r="A518" s="227">
         <v>1</v>
       </c>
-      <c r="B518" s="189" t="s">
+      <c r="B518" s="226" t="s">
         <v>202</v>
       </c>
-      <c r="C518" s="189"/>
-      <c r="D518" s="189"/>
+      <c r="C518" s="226"/>
+      <c r="D518" s="226"/>
     </row>
     <row r="519" spans="1:4">
-      <c r="A519" s="193"/>
-      <c r="B519" s="189"/>
-      <c r="C519" s="189"/>
-      <c r="D519" s="189"/>
+      <c r="A519" s="228"/>
+      <c r="B519" s="226"/>
+      <c r="C519" s="226"/>
+      <c r="D519" s="226"/>
     </row>
     <row r="520" spans="1:4">
-      <c r="A520" s="193"/>
-      <c r="B520" s="189"/>
-      <c r="C520" s="189"/>
-      <c r="D520" s="189"/>
+      <c r="A520" s="228"/>
+      <c r="B520" s="226"/>
+      <c r="C520" s="226"/>
+      <c r="D520" s="226"/>
     </row>
     <row r="521" spans="1:4">
-      <c r="A521" s="194"/>
-      <c r="B521" s="189"/>
-      <c r="C521" s="189"/>
-      <c r="D521" s="189"/>
+      <c r="A521" s="229"/>
+      <c r="B521" s="226"/>
+      <c r="C521" s="226"/>
+      <c r="D521" s="226"/>
     </row>
     <row r="522" spans="1:4">
-      <c r="B522" s="190" t="s">
+      <c r="B522" s="220" t="s">
         <v>203</v>
       </c>
-      <c r="C522" s="190"/>
-      <c r="D522" s="190"/>
+      <c r="C522" s="220"/>
+      <c r="D522" s="220"/>
     </row>
     <row r="523" spans="1:4">
-      <c r="B523" s="191" t="s">
+      <c r="B523" s="221" t="s">
         <v>203</v>
       </c>
-      <c r="C523" s="191"/>
-      <c r="D523" s="191"/>
+      <c r="C523" s="221"/>
+      <c r="D523" s="221"/>
     </row>
     <row r="524" spans="1:4">
-      <c r="A524" s="192">
+      <c r="A524" s="227">
         <v>1</v>
       </c>
-      <c r="B524" s="189" t="s">
+      <c r="B524" s="226" t="s">
         <v>204</v>
       </c>
-      <c r="C524" s="189"/>
-      <c r="D524" s="189"/>
+      <c r="C524" s="226"/>
+      <c r="D524" s="226"/>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="193"/>
-      <c r="B525" s="189"/>
-      <c r="C525" s="189"/>
-      <c r="D525" s="189"/>
+      <c r="A525" s="228"/>
+      <c r="B525" s="226"/>
+      <c r="C525" s="226"/>
+      <c r="D525" s="226"/>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="194"/>
-      <c r="B526" s="189"/>
-      <c r="C526" s="189"/>
-      <c r="D526" s="189"/>
+      <c r="A526" s="229"/>
+      <c r="B526" s="226"/>
+      <c r="C526" s="226"/>
+      <c r="D526" s="226"/>
     </row>
   </sheetData>
   <sortState ref="B346:C347">
     <sortCondition ref="B346"/>
   </sortState>
   <mergeCells count="127">
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B392:D392"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C214"/>
-    <mergeCell ref="B297:D297"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B259:D259"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B261:D261"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B154:D156"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B518:D521"/>
+    <mergeCell ref="B522:D522"/>
+    <mergeCell ref="B523:D523"/>
+    <mergeCell ref="B524:D526"/>
+    <mergeCell ref="A507:A510"/>
+    <mergeCell ref="A513:A515"/>
+    <mergeCell ref="A518:A521"/>
+    <mergeCell ref="A524:A526"/>
+    <mergeCell ref="B505:D505"/>
+    <mergeCell ref="B506:D506"/>
+    <mergeCell ref="B507:D510"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="B512:D512"/>
+    <mergeCell ref="B513:D515"/>
+    <mergeCell ref="B516:D516"/>
+    <mergeCell ref="B517:D517"/>
+    <mergeCell ref="A285:A289"/>
+    <mergeCell ref="B285:D289"/>
+    <mergeCell ref="B302:D302"/>
+    <mergeCell ref="B303:D303"/>
+    <mergeCell ref="A304:A306"/>
+    <mergeCell ref="B304:D306"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B298:D301"/>
+    <mergeCell ref="A262:A266"/>
+    <mergeCell ref="B262:D266"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="A280:A282"/>
+    <mergeCell ref="B280:D282"/>
+    <mergeCell ref="B283:D283"/>
+    <mergeCell ref="B284:D284"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="A292:A295"/>
+    <mergeCell ref="B292:D295"/>
+    <mergeCell ref="B296:D296"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="A172:A183"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B172:C183"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="B105:C105"/>
     <mergeCell ref="C499:D499"/>
     <mergeCell ref="B500:D500"/>
     <mergeCell ref="B467:D467"/>
@@ -14293,80 +14334,35 @@
     <mergeCell ref="B279:D279"/>
     <mergeCell ref="B290:D290"/>
     <mergeCell ref="B291:D291"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="A172:A183"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B172:C183"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="B298:D301"/>
-    <mergeCell ref="A262:A266"/>
-    <mergeCell ref="B262:D266"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="A280:A282"/>
-    <mergeCell ref="B280:D282"/>
-    <mergeCell ref="B283:D283"/>
-    <mergeCell ref="B284:D284"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="A292:A295"/>
-    <mergeCell ref="B292:D295"/>
-    <mergeCell ref="B296:D296"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B518:D521"/>
-    <mergeCell ref="B522:D522"/>
-    <mergeCell ref="B523:D523"/>
-    <mergeCell ref="B524:D526"/>
-    <mergeCell ref="A507:A510"/>
-    <mergeCell ref="A513:A515"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="A524:A526"/>
-    <mergeCell ref="B505:D505"/>
-    <mergeCell ref="B506:D506"/>
-    <mergeCell ref="B507:D510"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="B512:D512"/>
-    <mergeCell ref="B513:D515"/>
-    <mergeCell ref="B516:D516"/>
-    <mergeCell ref="B517:D517"/>
-    <mergeCell ref="A285:A289"/>
-    <mergeCell ref="B285:D289"/>
-    <mergeCell ref="B302:D302"/>
-    <mergeCell ref="B303:D303"/>
-    <mergeCell ref="A304:A306"/>
-    <mergeCell ref="B304:D306"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B154:D156"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B392:D392"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C214"/>
+    <mergeCell ref="B297:D297"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B259:D259"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B261:D261"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B217:D217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14379,727 +14375,727 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:UQZ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="D62" sqref="D62:D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="3.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="246" t="s">
-        <v>614</v>
-      </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
+      <c r="B1" s="241" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="164" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="164" t="s">
         <v>469</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="C3" s="164" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="161" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="161" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="230">
+        <v>1</v>
+      </c>
+      <c r="B4" s="244" t="s">
         <v>470</v>
       </c>
-      <c r="C3" s="164" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="161" t="s">
-        <v>501</v>
-      </c>
-      <c r="E3" s="161" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="204">
-        <v>1</v>
-      </c>
-      <c r="B4" s="248" t="s">
-        <v>471</v>
-      </c>
       <c r="C4" s="160" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="163" t="s">
+        <v>621</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="230"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="243" t="s">
         <v>480</v>
       </c>
-      <c r="D4" s="163" t="s">
-        <v>622</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="204"/>
-      <c r="B5" s="249"/>
-      <c r="C5" s="243" t="s">
-        <v>481</v>
-      </c>
       <c r="D5" s="160" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="204"/>
-      <c r="B6" s="249"/>
+      <c r="A6" s="230"/>
+      <c r="B6" s="245"/>
       <c r="C6" s="243"/>
       <c r="D6" s="160" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="204"/>
-      <c r="B7" s="249"/>
+      <c r="A7" s="230"/>
+      <c r="B7" s="245"/>
       <c r="C7" s="243"/>
       <c r="D7" s="160" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="204"/>
-      <c r="B8" s="249"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="245"/>
       <c r="C8" s="243"/>
       <c r="D8" s="160" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="204"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="245" t="s">
-        <v>452</v>
+      <c r="A9" s="230"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="247" t="s">
+        <v>451</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="230"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="204"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="13" t="s">
+      <c r="I10" s="166"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="230"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="I10" s="166"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="204"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="13" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="230"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E12" s="162" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="204"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="245"/>
-      <c r="D12" s="13" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="230"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="E12" s="162" t="s">
+      <c r="E13" s="13" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="204"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="13" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="230"/>
+      <c r="B14" s="245"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="204"/>
-      <c r="B14" s="249"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="13" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="230"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="204"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="13" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="230"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="204"/>
-      <c r="B16" s="249"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="13" t="s">
+    <row r="17" spans="1:5 14664:14664">
+      <c r="A17" s="230"/>
+      <c r="B17" s="245"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="17" spans="1:5 14664:14664">
-      <c r="A17" s="204"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="13" t="s">
+    <row r="18" spans="1:5 14664:14664">
+      <c r="A18" s="230"/>
+      <c r="B18" s="245"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5 14664:14664">
+      <c r="A19" s="230"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="18" spans="1:5 14664:14664">
-      <c r="A18" s="204"/>
-      <c r="B18" s="249"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5 14664:14664">
-      <c r="A19" s="204"/>
-      <c r="B19" s="249"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="13" t="s">
+    <row r="20" spans="1:5 14664:14664">
+      <c r="A20" s="230"/>
+      <c r="B20" s="245"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="20" spans="1:5 14664:14664">
-      <c r="A20" s="204"/>
-      <c r="B20" s="249"/>
-      <c r="C20" s="245"/>
-      <c r="D20" s="13" t="s">
+    <row r="21" spans="1:5 14664:14664">
+      <c r="A21" s="230"/>
+      <c r="B21" s="245"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="21" spans="1:5 14664:14664">
-      <c r="A21" s="204"/>
-      <c r="B21" s="249"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="13" t="s">
+    <row r="22" spans="1:5 14664:14664">
+      <c r="A22" s="230"/>
+      <c r="B22" s="245"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="1:5 14664:14664">
-      <c r="A22" s="204"/>
-      <c r="B22" s="249"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="13" t="s">
+    <row r="23" spans="1:5 14664:14664">
+      <c r="A23" s="230"/>
+      <c r="B23" s="245"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="23" spans="1:5 14664:14664">
-      <c r="A23" s="204"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="13" t="s">
+    <row r="24" spans="1:5 14664:14664">
+      <c r="A24" s="230"/>
+      <c r="B24" s="245"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5 14664:14664">
-      <c r="A24" s="204"/>
-      <c r="B24" s="249"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="13" t="s">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5 14664:14664">
+      <c r="A25" s="230"/>
+      <c r="B25" s="245"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5 14664:14664">
-      <c r="A25" s="204"/>
-      <c r="B25" s="249"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5 14664:14664">
+      <c r="A26" s="230"/>
+      <c r="B26" s="245"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5 14664:14664">
-      <c r="A26" s="204"/>
-      <c r="B26" s="249"/>
-      <c r="C26" s="245"/>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5 14664:14664">
+      <c r="A27" s="230"/>
+      <c r="B27" s="245"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5 14664:14664">
-      <c r="A27" s="204"/>
-      <c r="B27" s="249"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5 14664:14664">
+      <c r="A28" s="230"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5 14664:14664">
-      <c r="A28" s="204"/>
-      <c r="B28" s="249"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5 14664:14664">
+      <c r="A29" s="230"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5 14664:14664">
-      <c r="A29" s="204"/>
-      <c r="B29" s="249"/>
-      <c r="C29" s="245"/>
-      <c r="D29" s="13" t="s">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5 14664:14664">
+      <c r="A30" s="230"/>
+      <c r="B30" s="245"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="13" t="s">
         <v>583</v>
-      </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5 14664:14664">
-      <c r="A30" s="204"/>
-      <c r="B30" s="249"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="13" t="s">
-        <v>584</v>
       </c>
       <c r="E30" s="13"/>
       <c r="UQZ30" s="99"/>
     </row>
     <row r="31" spans="1:5 14664:14664">
-      <c r="A31" s="204"/>
-      <c r="B31" s="249"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="245"/>
       <c r="C31" s="160" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>602</v>
-      </c>
     </row>
     <row r="32" spans="1:5 14664:14664">
-      <c r="A32" s="204"/>
-      <c r="B32" s="249"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="245"/>
       <c r="C32" s="243" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D32" s="160" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="204"/>
-      <c r="B33" s="249"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="245"/>
       <c r="C33" s="243"/>
       <c r="D33" s="160" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="204"/>
-      <c r="B34" s="249"/>
+      <c r="A34" s="230"/>
+      <c r="B34" s="245"/>
       <c r="C34" s="160" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D34" s="163" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="204"/>
-      <c r="B35" s="249"/>
+      <c r="A35" s="230"/>
+      <c r="B35" s="245"/>
       <c r="C35" s="243" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="204"/>
-      <c r="B36" s="249"/>
+      <c r="A36" s="230"/>
+      <c r="B36" s="245"/>
       <c r="C36" s="243"/>
       <c r="D36" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="204"/>
-      <c r="B37" s="249"/>
+      <c r="A37" s="230"/>
+      <c r="B37" s="245"/>
       <c r="C37" s="243"/>
       <c r="D37" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="204"/>
-      <c r="B38" s="249"/>
+      <c r="A38" s="230"/>
+      <c r="B38" s="245"/>
       <c r="C38" s="243"/>
       <c r="D38" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="204"/>
-      <c r="B39" s="249"/>
+      <c r="A39" s="230"/>
+      <c r="B39" s="245"/>
       <c r="C39" s="243"/>
       <c r="D39" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="204"/>
-      <c r="B40" s="249"/>
+      <c r="A40" s="230"/>
+      <c r="B40" s="245"/>
       <c r="C40" s="243"/>
       <c r="D40" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="204"/>
-      <c r="B41" s="249"/>
+      <c r="A41" s="230"/>
+      <c r="B41" s="245"/>
       <c r="C41" s="243"/>
       <c r="D41" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="204"/>
-      <c r="B42" s="249"/>
+      <c r="A42" s="230"/>
+      <c r="B42" s="245"/>
       <c r="C42" s="243"/>
       <c r="D42" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="204"/>
-      <c r="B43" s="249"/>
+      <c r="A43" s="230"/>
+      <c r="B43" s="245"/>
       <c r="C43" s="243"/>
       <c r="D43" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="204"/>
-      <c r="B44" s="249"/>
+      <c r="A44" s="230"/>
+      <c r="B44" s="245"/>
       <c r="C44" s="243" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="204"/>
-      <c r="B45" s="249"/>
+      <c r="A45" s="230"/>
+      <c r="B45" s="245"/>
       <c r="C45" s="243"/>
       <c r="D45" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="204"/>
-      <c r="B46" s="249"/>
+      <c r="A46" s="230"/>
+      <c r="B46" s="245"/>
       <c r="C46" s="243"/>
       <c r="D46" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="204"/>
-      <c r="B47" s="249"/>
+      <c r="A47" s="230"/>
+      <c r="B47" s="245"/>
       <c r="C47" s="243" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="204"/>
-      <c r="B48" s="249"/>
+      <c r="A48" s="230"/>
+      <c r="B48" s="245"/>
       <c r="C48" s="243"/>
       <c r="D48" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="204"/>
-      <c r="B49" s="249"/>
+      <c r="A49" s="230"/>
+      <c r="B49" s="245"/>
       <c r="C49" s="243"/>
       <c r="D49" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="204"/>
-      <c r="B50" s="249"/>
+      <c r="A50" s="230"/>
+      <c r="B50" s="245"/>
       <c r="C50" s="243"/>
       <c r="D50" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="204"/>
-      <c r="B51" s="249"/>
+      <c r="A51" s="230"/>
+      <c r="B51" s="245"/>
       <c r="C51" s="243"/>
       <c r="D51" s="13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="204"/>
-      <c r="B52" s="249"/>
+      <c r="A52" s="230"/>
+      <c r="B52" s="245"/>
       <c r="C52" s="243"/>
       <c r="D52" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="204"/>
-      <c r="B53" s="249"/>
+      <c r="A53" s="230"/>
+      <c r="B53" s="245"/>
       <c r="C53" s="243"/>
       <c r="D53" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54" s="230"/>
+      <c r="B54" s="245"/>
+      <c r="C54" s="160" t="s">
+        <v>485</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="204"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="160" t="s">
-        <v>486</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="E54" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="230"/>
+      <c r="B55" s="245"/>
+      <c r="C55" s="160" t="s">
+        <v>487</v>
+      </c>
+      <c r="D55" s="162" t="s">
         <v>642</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="204"/>
-      <c r="B55" s="249"/>
-      <c r="C55" s="160" t="s">
+      <c r="E55" s="13" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="230"/>
+      <c r="B56" s="245"/>
+      <c r="C56" s="160" t="s">
         <v>488</v>
       </c>
-      <c r="D55" s="162" t="s">
+      <c r="D56" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="204"/>
-      <c r="B56" s="249"/>
-      <c r="C56" s="160" t="s">
+      <c r="E56" s="160" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="230"/>
+      <c r="B57" s="245"/>
+      <c r="C57" s="243" t="s">
         <v>489</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="E56" s="160" t="s">
+      <c r="E57" s="160" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="204"/>
-      <c r="B57" s="249"/>
-      <c r="C57" s="243" t="s">
-        <v>490</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="E57" s="160" t="s">
-        <v>490</v>
-      </c>
-    </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="204"/>
-      <c r="B58" s="249"/>
+      <c r="A58" s="230"/>
+      <c r="B58" s="245"/>
       <c r="C58" s="243"/>
       <c r="D58" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E58" s="160"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="204"/>
-      <c r="B59" s="249"/>
+      <c r="A59" s="230"/>
+      <c r="B59" s="245"/>
       <c r="C59" s="243"/>
       <c r="D59" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="204"/>
-      <c r="B60" s="249"/>
+      <c r="A60" s="230"/>
+      <c r="B60" s="245"/>
       <c r="C60" s="243" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="204"/>
-      <c r="B61" s="249"/>
+      <c r="A61" s="230"/>
+      <c r="B61" s="245"/>
       <c r="C61" s="243"/>
       <c r="D61" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="230"/>
+      <c r="B62" s="245"/>
+      <c r="C62" s="243" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="204"/>
-      <c r="B62" s="249"/>
-      <c r="C62" s="243" t="s">
-        <v>492</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>650</v>
-      </c>
       <c r="E62" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="204"/>
-      <c r="B63" s="249"/>
+      <c r="A63" s="230"/>
+      <c r="B63" s="245"/>
       <c r="C63" s="243"/>
       <c r="D63" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="204"/>
-      <c r="B64" s="249"/>
+      <c r="A64" s="230"/>
+      <c r="B64" s="245"/>
       <c r="C64" s="243"/>
       <c r="D64" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="204"/>
-      <c r="B65" s="249"/>
+      <c r="A65" s="230"/>
+      <c r="B65" s="245"/>
       <c r="C65" s="243"/>
       <c r="D65" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="204"/>
-      <c r="B66" s="249"/>
+      <c r="A66" s="230"/>
+      <c r="B66" s="245"/>
       <c r="C66" s="243"/>
       <c r="D66" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="204"/>
-      <c r="B67" s="250"/>
+      <c r="A67" s="230"/>
+      <c r="B67" s="246"/>
       <c r="C67" s="243"/>
       <c r="D67" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E67" s="13"/>
     </row>
@@ -15108,7 +15104,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -15119,18 +15115,18 @@
         <v>3</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
     </row>
-    <row r="70" spans="1:5" ht="14" customHeight="1">
+    <row r="70" spans="1:5" ht="14.1" customHeight="1">
       <c r="A70" s="11">
         <v>4</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -15141,7 +15137,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15152,7 +15148,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15163,7 +15159,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -15174,491 +15170,491 @@
         <v>8</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="204">
+      <c r="A75" s="230">
         <v>9</v>
       </c>
-      <c r="B75" s="202" t="s">
-        <v>478</v>
-      </c>
-      <c r="C75" s="202" t="s">
+      <c r="B75" s="208" t="s">
+        <v>477</v>
+      </c>
+      <c r="C75" s="208" t="s">
+        <v>492</v>
+      </c>
+      <c r="D75" s="162" t="s">
+        <v>614</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="230"/>
+      <c r="B76" s="208"/>
+      <c r="C76" s="208"/>
+      <c r="D76" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="230"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="208"/>
+      <c r="D77" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="230"/>
+      <c r="B78" s="208"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="230"/>
+      <c r="B79" s="208"/>
+      <c r="C79" s="208"/>
+      <c r="D79" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A80" s="230"/>
+      <c r="B80" s="208"/>
+      <c r="C80" s="13" t="s">
         <v>493</v>
-      </c>
-      <c r="D75" s="162" t="s">
-        <v>615</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="204"/>
-      <c r="B76" s="202"/>
-      <c r="C76" s="202"/>
-      <c r="D76" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="204"/>
-      <c r="B77" s="202"/>
-      <c r="C77" s="202"/>
-      <c r="D77" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="204"/>
-      <c r="B78" s="202"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="E78" s="13"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="204"/>
-      <c r="B79" s="202"/>
-      <c r="C79" s="202"/>
-      <c r="D79" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5" ht="14" customHeight="1">
-      <c r="A80" s="204"/>
-      <c r="B80" s="202"/>
-      <c r="C80" s="13" t="s">
-        <v>494</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="204"/>
-      <c r="B81" s="202"/>
+      <c r="A81" s="230"/>
+      <c r="B81" s="208"/>
       <c r="C81" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="204"/>
-      <c r="B82" s="202"/>
+      <c r="A82" s="230"/>
+      <c r="B82" s="208"/>
       <c r="C82" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="1:5" ht="14" customHeight="1">
-      <c r="A83" s="204"/>
-      <c r="B83" s="202"/>
+    <row r="83" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A83" s="230"/>
+      <c r="B83" s="208"/>
       <c r="C83" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="1:5" ht="14" customHeight="1">
-      <c r="A84" s="204"/>
-      <c r="B84" s="202"/>
-      <c r="C84" s="202" t="s">
-        <v>455</v>
+    <row r="84" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A84" s="230"/>
+      <c r="B84" s="208"/>
+      <c r="C84" s="208" t="s">
+        <v>454</v>
       </c>
       <c r="D84" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="230"/>
+      <c r="B85" s="208"/>
+      <c r="C85" s="208"/>
+      <c r="D85" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E85" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="230"/>
+      <c r="B86" s="208"/>
+      <c r="C86" s="208"/>
+      <c r="D86" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="230"/>
+      <c r="B87" s="208"/>
+      <c r="C87" s="208"/>
+      <c r="D87" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="230"/>
+      <c r="B88" s="208"/>
+      <c r="C88" s="208"/>
+      <c r="D88" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="230"/>
+      <c r="B89" s="208"/>
+      <c r="C89" s="208"/>
+      <c r="D89" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="230"/>
+      <c r="B90" s="208"/>
+      <c r="C90" s="208"/>
+      <c r="D90" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="204"/>
-      <c r="B85" s="202"/>
-      <c r="C85" s="202"/>
-      <c r="D85" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="204"/>
-      <c r="B86" s="202"/>
-      <c r="C86" s="202"/>
-      <c r="D86" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="204"/>
-      <c r="B87" s="202"/>
-      <c r="C87" s="202"/>
-      <c r="D87" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="E87" s="13" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="230"/>
+      <c r="B91" s="208"/>
+      <c r="C91" s="208"/>
+      <c r="D91" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="230"/>
+      <c r="B92" s="208"/>
+      <c r="C92" s="208"/>
+      <c r="D92" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E92" s="13" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="204"/>
-      <c r="B88" s="202"/>
-      <c r="C88" s="202"/>
-      <c r="D88" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="E88" s="13" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="230"/>
+      <c r="B93" s="208"/>
+      <c r="C93" s="208"/>
+      <c r="D93" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="230"/>
+      <c r="B94" s="208"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="204"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="202"/>
-      <c r="D89" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="E89" s="13" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="230"/>
+      <c r="B95" s="208"/>
+      <c r="C95" s="208"/>
+      <c r="D95" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="230"/>
+      <c r="B96" s="208"/>
+      <c r="C96" s="208"/>
+      <c r="D96" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="230"/>
+      <c r="B97" s="208"/>
+      <c r="C97" s="208"/>
+      <c r="D97" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="230"/>
+      <c r="B98" s="208"/>
+      <c r="C98" s="208"/>
+      <c r="D98" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="230"/>
+      <c r="B99" s="208"/>
+      <c r="C99" s="208"/>
+      <c r="D99" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="230"/>
+      <c r="B100" s="208"/>
+      <c r="C100" s="208"/>
+      <c r="D100" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="230"/>
+      <c r="B101" s="208"/>
+      <c r="C101" s="208"/>
+      <c r="D101" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="230"/>
+      <c r="B102" s="208"/>
+      <c r="C102" s="208"/>
+      <c r="D102" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="230"/>
+      <c r="B103" s="208"/>
+      <c r="C103" s="208"/>
+      <c r="D103" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="230"/>
+      <c r="B104" s="208"/>
+      <c r="C104" s="208"/>
+      <c r="D104" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="230"/>
+      <c r="B105" s="208"/>
+      <c r="C105" s="208"/>
+      <c r="D105" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="E105" s="13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="204"/>
-      <c r="B90" s="202"/>
-      <c r="C90" s="202"/>
-      <c r="D90" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="204"/>
-      <c r="B91" s="202"/>
-      <c r="C91" s="202"/>
-      <c r="D91" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="204"/>
-      <c r="B92" s="202"/>
-      <c r="C92" s="202"/>
-      <c r="D92" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="204"/>
-      <c r="B93" s="202"/>
-      <c r="C93" s="202"/>
-      <c r="D93" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="204"/>
-      <c r="B94" s="202"/>
-      <c r="C94" s="202"/>
-      <c r="D94" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="204"/>
-      <c r="B95" s="202"/>
-      <c r="C95" s="202"/>
-      <c r="D95" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="204"/>
-      <c r="B96" s="202"/>
-      <c r="C96" s="202"/>
-      <c r="D96" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="204"/>
-      <c r="B97" s="202"/>
-      <c r="C97" s="202"/>
-      <c r="D97" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="204"/>
-      <c r="B98" s="202"/>
-      <c r="C98" s="202"/>
-      <c r="D98" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="204"/>
-      <c r="B99" s="202"/>
-      <c r="C99" s="202"/>
-      <c r="D99" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="204"/>
-      <c r="B100" s="202"/>
-      <c r="C100" s="202"/>
-      <c r="D100" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="204"/>
-      <c r="B101" s="202"/>
-      <c r="C101" s="202"/>
-      <c r="D101" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="204"/>
-      <c r="B102" s="202"/>
-      <c r="C102" s="202"/>
-      <c r="D102" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="204"/>
-      <c r="B103" s="202"/>
-      <c r="C103" s="202"/>
-      <c r="D103" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="E103" s="13" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="230"/>
+      <c r="B106" s="208"/>
+      <c r="C106" s="208"/>
+      <c r="D106" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E106" s="13" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="204"/>
-      <c r="B104" s="202"/>
-      <c r="C104" s="202"/>
-      <c r="D104" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="E104" s="13" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="230"/>
+      <c r="B107" s="208"/>
+      <c r="C107" s="208"/>
+      <c r="D107" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="E107" s="13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="204"/>
-      <c r="B105" s="202"/>
-      <c r="C105" s="202"/>
-      <c r="D105" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="204"/>
-      <c r="B106" s="202"/>
-      <c r="C106" s="202"/>
-      <c r="D106" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="E106" s="13" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="230"/>
+      <c r="B108" s="208"/>
+      <c r="C108" s="208"/>
+      <c r="D108" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="E108" s="13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="204"/>
-      <c r="B107" s="202"/>
-      <c r="C107" s="202"/>
-      <c r="D107" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="E107" s="13" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="230"/>
+      <c r="B109" s="208"/>
+      <c r="C109" s="208"/>
+      <c r="D109" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="230"/>
+      <c r="B110" s="208"/>
+      <c r="C110" s="208"/>
+      <c r="D110" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="230"/>
+      <c r="B111" s="208"/>
+      <c r="C111" s="208"/>
+      <c r="D111" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="E111" s="13" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="204"/>
-      <c r="B108" s="202"/>
-      <c r="C108" s="202"/>
-      <c r="D108" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="204"/>
-      <c r="B109" s="202"/>
-      <c r="C109" s="202"/>
-      <c r="D109" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="204"/>
-      <c r="B110" s="202"/>
-      <c r="C110" s="202"/>
-      <c r="D110" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="E110" s="13" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="230"/>
+      <c r="B112" s="208"/>
+      <c r="C112" s="208"/>
+      <c r="D112" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E112" s="13" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="204"/>
-      <c r="B111" s="202"/>
-      <c r="C111" s="202"/>
-      <c r="D111" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="E111" s="13" t="s">
+    <row r="113" spans="1:5">
+      <c r="A113" s="230"/>
+      <c r="B113" s="208"/>
+      <c r="C113" s="208"/>
+      <c r="D113" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="E113" s="13" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="204"/>
-      <c r="B112" s="202"/>
-      <c r="C112" s="202"/>
-      <c r="D112" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="E112" s="13" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="230"/>
+      <c r="B114" s="208"/>
+      <c r="C114" s="208"/>
+      <c r="D114" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="E114" s="13" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="204"/>
-      <c r="B113" s="202"/>
-      <c r="C113" s="202"/>
-      <c r="D113" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="204"/>
-      <c r="B114" s="202"/>
-      <c r="C114" s="202"/>
-      <c r="D114" s="13" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="230"/>
+      <c r="B115" s="208"/>
+      <c r="C115" s="208"/>
+      <c r="D115" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E115" s="13" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="204"/>
-      <c r="B115" s="202"/>
-      <c r="C115" s="202"/>
-      <c r="D115" s="13" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="230"/>
+      <c r="B116" s="208"/>
+      <c r="C116" s="208"/>
+      <c r="D116" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="E115" s="13" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="204"/>
-      <c r="B116" s="202"/>
-      <c r="C116" s="202"/>
-      <c r="D116" s="13" t="s">
-        <v>535</v>
-      </c>
       <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="204"/>
-      <c r="B117" s="202"/>
+      <c r="A117" s="230"/>
+      <c r="B117" s="208"/>
       <c r="C117" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="204"/>
-      <c r="B118" s="202"/>
+      <c r="A118" s="230"/>
+      <c r="B118" s="208"/>
       <c r="C118" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="204"/>
-      <c r="B119" s="202"/>
+      <c r="A119" s="230"/>
+      <c r="B119" s="208"/>
       <c r="C119" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
@@ -15668,7 +15664,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
@@ -15679,7 +15675,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -15690,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -15701,7 +15697,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -15712,7 +15708,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -15723,7 +15719,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -15734,7 +15730,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -15745,7 +15741,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
@@ -15756,7 +15752,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -15767,7 +15763,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
@@ -15778,7 +15774,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -15789,7 +15785,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -15800,7 +15796,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
@@ -15811,7 +15807,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
@@ -15822,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
@@ -15859,20 +15855,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="Q12:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="17:25">
@@ -15889,7 +15885,7 @@
     <row r="13" spans="17:25">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="244"/>
+      <c r="S13" s="248"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -15900,7 +15896,7 @@
     <row r="14" spans="17:25">
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="244"/>
+      <c r="S14" s="248"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -15911,7 +15907,7 @@
     <row r="15" spans="17:25">
       <c r="Q15" s="159"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="244"/>
+      <c r="S15" s="248"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -15922,7 +15918,7 @@
     <row r="16" spans="17:25">
       <c r="Q16" s="159"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="244"/>
+      <c r="S16" s="248"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -15933,7 +15929,7 @@
     <row r="17" spans="17:25">
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="244"/>
+      <c r="S17" s="248"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
